--- a/PCA_OUTPUT.xlsx
+++ b/PCA_OUTPUT.xlsx
@@ -1,14 +1,35 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="固有値" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="寄与率" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="負荷率" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主成分得点表" sheetId="4" state="visible" r:id="rId4"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +420,3077 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.34982500769136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.954007648841377</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.773127817716277</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.46100834929694</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PC5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.153925092148899</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>PC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.3404440797601</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PC7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.96281661981627</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PC8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.631850521332479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2325731061771418</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1205152674066875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08747163360176176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.08274255074692333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PC5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.062938258971953</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>PC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05061278908727423</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PC7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.04489116090630711</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PC8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0398765230504921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BO10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>通行者20人到達時間</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>3分あたり滞在者</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>点字ブロックや音の鳴る信号がある</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>車両進入防止設備がある</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>建物等への車両進入口が歩行空間を分離しないよう配慮されている</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>歩行者専用道路になっている（曜日や時間に応じた一時的な指定も含む）</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>車道と歩道が分かれている</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>自動車レーンと歩道が分かれている</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>車両の速度を抑制する対策が講じられている（ゾーン30の指定、ハンプ、狭さく、シケイン等）</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>近くにレンタサイクルや電動キックボードなどシェアモビリティのポートがある</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>アート・展示空間がある</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>電灯／樹木に、目にとまるような魅力的な装飾が設けられている</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>管理の行き届いた植栽（植木・花壇等）がある</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>アスファルト以外の化粧材が整備されている</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>無電柱化されている</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ぼーっとできる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ぼーっとしている人がいる</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>座って休憩したり、くつろいだりしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>座って休憩したり、くつろいだりしている人がいる</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>横になってくつろぎたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ゆったり読書をしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>読書をしたり、スマートフォン・タブレットを操作したりする人がいる</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>緑などに囲まれて自然を感じられる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>花壇や緑などを眺める人がいる</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>陽だまり、または日陰で過ごしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>日光を楽しむ、日陰で過ごす人がいる</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>眺めたいまちなみや景色があると感じる</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>まちなみや景色を眺める人がいる</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ぶらぶらと歩きたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>散歩をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>長居したい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>長時間滞在している人がいる（長時間：30分程度）</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ゆったりお茶をしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>お茶をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>体を軽く動かしてリラックスできる場所だと感じる（ヨガや体操・ストレッチ等）</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>友人や恋人と来て過ごしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>笑いながら話をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>複数人で飲食をしたい場所だと感じる（ピクニックを含む）</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>複数人で飲食をしている（ピクニックを含む）</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>人との新しい出会いがありそうな場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>会話・交流している人がいる</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>人が群がりそうな面白そう・雰囲気の良いものがある場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>何かに人が群がっている</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>沿道や近くでウィンドウショッピングを楽しみたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>沿道や近くでウィンドウショッピングや買い物をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>パフォーマンスができる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>魅力的なコンテンツがあり、子どもや大人が楽しく遊べる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>子どもや大人が夢中になって遊んでいる</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>写真や動画に映える・誰かにシェアしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>写真や動画を撮っている人がいる</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1人</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>家族</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>グループ</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>性別不明</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>乳幼児</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>小学生</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>中高生</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>大人</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>高齢者</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>スタスタ歩いている</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>のんびり歩いている</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>日本人</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>外国人</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>国籍不明</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.08534850554274383</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04856792439846429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.04392493038757288</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.09589664879612354</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.05642069579340824</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.1546446141422828</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01971532714928531</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.07231404185527537</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.05612760073394289</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02913529393283943</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.01925028171857335</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.1229409949493722</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.003839316694061614</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.07230337757328294</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.004963077384637239</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1930635970861115</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1700097884247341</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2088253248440161</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1777372237945484</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1661141490216749</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1932628286596227</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.04957045561244421</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1600956324229448</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.06669581150652611</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1559324571516148</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1112601120697068</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.134093419071911</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.07162448281958388</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.1734337704782038</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.09133110234690435</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2074059110613463</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.1622232805689139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1932777286612045</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.1661141490216748</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1546950724717852</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2181350463575707</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1490500281956529</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1930237685143598</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1948031209667911</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1736066912707054</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.1736224455314836</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1880328822112993</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1022573517240132</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1559216021773391</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1240390400362364</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.07876498232927276</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.1302200668059412</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.04165061590445898</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.2000131530005199</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.04419207240642526</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>-0.09023243519732596</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.008747811441326142</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.09003406465540237</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-0.03245389743654125</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.09841634764230117</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.03507559942019214</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.05584125464814082</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-0.009543995187549094</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>-0.06377021666217647</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.06277367813532703</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.008006682481024761</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>-0.05587121666548218</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1012821519698251</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1125720161436026</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>-0.05643759337909163</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.001505158909292955</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1218930844675857</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.0004423804645767535</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.219491571200608</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.2412117394324266</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1325457162960159</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1355826047472969</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1421432703639517</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.0606392850201262</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2975880999432441</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.06817205530976558</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2394840744657771</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.03273814237767438</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.1711901381605441</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2993005918869401</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.06848732595592279</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1044876209507607</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.05059063731824854</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.001987639064855622</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04486384464153876</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.06184780584004525</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.05307464906641029</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.1887064272451395</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.08602169852171565</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2467935098834986</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.03832169812021611</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1565809911874882</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.06460491734172616</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2217286509295379</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1284711723904481</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1998871806111098</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.05336307733971057</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.008008699060245298</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.07171465866191973</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.06184780584004526</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.01679136832019024</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.04804738372649781</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.05710224039547798</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.1534529404293044</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.09575156784279441</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.07684401542027458</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.01328353700139644</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.117257369183882</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.01095842433575085</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.03668335208671224</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.09403241945988103</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.08136260730444142</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.06100072829229308</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-0.08861918870223738</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-0.002367281013327344</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>-0.02052356740133417</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>-0.1117227314000843</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>-0.1324501563120395</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.1396166007628733</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.05467077677797605</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.03170829348132699</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0421674625753115</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-0.1246521630387448</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.04631933700277763</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-0.09612856599456036</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-0.01540039624156659</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.1910142091495068</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.07299194110790384</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>-0.03452006358375884</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>-0.03979347734850584</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.06212695142744324</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.2275907682590456</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.04102646234353305</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2884674716071809</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1630888377067768</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03741242174857975</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1416905821158085</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0882782641172789</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.02703159644304834</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03289728182672972</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.06466975267355989</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.009618226862980601</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1020696301936233</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2006011337701197</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2256092828196495</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.03382941114522319</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1783184039713422</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0483709687169847</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.09666876664859975</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.07651242078889291</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06060870051347497</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.07650258821281869</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.1054609067169659</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.08625349747496772</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05743124937374629</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.01311851629359884</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.09870896722426728</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.09696422664245372</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1072309372154158</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.007889065876210227</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.03554414948779641</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1369603210091818</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.06368056551360789</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2007715327680044</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.1235374544932608</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07650258821281869</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.1169532329957666</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.05568374327412828</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.005645521083141305</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01042516287154563</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.02097051442421636</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0283957930366653</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.03567419116013269</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.1049979416292971</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.2703968225854526</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.2197915772369083</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.056473964463121</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.1507731922362562</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.1922693577803324</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.3395430325911005</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.1400631656405973</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.2419430743147312</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>-0.03291336376592015</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-0.1456598667568992</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.07017780701274641</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>-0.04887507639896909</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.08564071349172059</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>-0.02715281400193501</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-0.0983885991672698</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.01489058035196136</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-0.1310306838671951</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-0.05813387444199254</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.17183402628862</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-0.1504715075806927</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.1545569789497271</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.01983604817489852</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.003058842340918016</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.02305252419420429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.134622854990871</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.09674679244337807</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03516848920960528</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02291881055476548</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08705052100360743</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.03687433308785612</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1416200109635066</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.03904034685670152</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.007181499645219573</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01981826823878729</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.111975342668257</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.04145097793817515</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.06639784441690991</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.04206829225859495</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.06995993031525084</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.06681974889843129</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.07606108942235318</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1012496808202874</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.01522585835732755</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2036939532925003</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.05376928444539468</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2038569493257168</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.06279943001653987</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.003115046467983438</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.07041744730301501</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04710829548355749</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1004794007624205</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1873297920062424</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.02677890809910881</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.01822124168234742</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.00385307832047022</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.04794254812506334</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.1322999554241729</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.2036939532925003</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.1688239566703189</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.04785576094817101</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.05195198659314337</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.0328466915165759</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.1083182061664918</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.09470958585555728</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1029939694344546</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.05022723219206211</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.09687421666857263</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1172711876361796</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.05617773611410559</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.1326727013380403</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1840420385906432</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.02183459138881019</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.1112934589279333</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.177146636926665</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.2284025512520184</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.1204584854934536</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-0.2523866786265975</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>-0.1722950845139559</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>-0.1399822914855523</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.2427220747757506</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.2226751363357619</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-0.218542955019689</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.05459244847101999</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-0.197156810920987</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-0.1296268300169511</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.04922230757591437</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-0.2256983394237042</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-0.1228161442156371</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>-0.1587612140578655</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.1023551997197098</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>PC5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05190982525797102</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1634365758900605</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.01081504670734555</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.1385145141193875</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1953108021548486</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04512505274359155</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.1791710528922426</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.1874305936814526</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01703527910046822</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1608799893335311</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1693184295482864</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02348366341543908</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.07079404331972954</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.002628668466114162</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1015638333487044</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.03490564709440668</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.05935997841913373</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.07322196725706469</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1591135447143444</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.059361329829904</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.007888888378658664</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.07667393546606073</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.0798099403694231</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1146031461729169</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1087947575807327</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0952647309275511</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.003646721049086071</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.06046635574561067</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.1447088323673534</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.1789456299710656</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.02597700859882043</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.009236128635136127</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.04154295208318062</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.05936132982990398</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.04074993990000586</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.06955345566943279</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.1006697530769208</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.03091883230932979</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.02974519263600126</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.1783219354035893</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.03744199750751934</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0808037829004557</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0147498004532995</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.01198914379641453</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.2155115407301698</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.07378377404593832</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.07139508291620655</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.04657661489607794</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.02110587130040374</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.1013836559352787</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.2474917290901135</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.2596712937848452</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.1658578150541003</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.1801608947875313</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.09447284141431521</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.05068214136806192</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.2136810138074843</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.198296769722956</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.1254749379108215</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.2832940609707638</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-0.08802941484091226</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.1854103105546387</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-0.02527364191360328</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>-0.01746096025848581</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.2578773519390787</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.07790482497712004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PC6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.0968341817727503</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05156832138853246</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05565991682029398</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.1439902590956583</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03328756177911717</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.04732944682164499</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01846211783360141</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2506898634567168</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.05291220332085943</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1791945834688562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.112615924395284</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.08497723609261652</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.04918162713345998</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.000913842990874312</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.06784985948541483</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.07703365116445197</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.0272450582955193</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.04828574233852441</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.0775835665378944</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.0692752191113899</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.01049296480082573</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.08152374536451847</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.132914612463467</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.03614837071016679</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01488204565619792</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.178144385087162</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.007023767994232832</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1267512724411807</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.1189626565464823</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.005108761166125522</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.04510979920279547</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1060189351471662</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.02744227527879677</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.06927521911138992</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.06110865492285746</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.02879918392580256</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.05391457733622023</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1380689204945416</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.04648790366292368</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.06031915170378493</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.05687795946846996</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.02350287193850991</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01918607321889127</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.08440456001721021</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1544669928606152</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.1673492244838083</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.037301839661507</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.07950977866148749</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0.05803776274984012</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.1045438813313074</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.01092585898010441</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0.2137261470656301</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.05144971532535837</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1871157474895671</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.07712970829089645</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-0.127633439726049</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.1497956825590035</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.2248766934253233</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-0.05175221104137161</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.2400275743458478</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-0.195170012662278</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.3073774163584442</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-0.2322899295739239</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.3211992254714511</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>-0.244076050215832</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>-0.05804377240387576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PC7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.08187563990341568</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1059503246794903</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05174730745981075</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.08333856631049343</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.07277277292614885</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.08857700283255247</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.02037821739677104</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.004543186896722706</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.05810407449397628</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.100328080660402</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.06517334083479071</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.05948588829515816</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.08778690077810472</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.1262303437908564</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.08288298531454888</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.09124800579852965</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.1048831499947347</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.1337057710382741</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.1685620917422168</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.1981884594575974</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.1352476279085698</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02535846622952279</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.02151595973190143</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.08911655112985349</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.08073820135291045</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.06199538553972844</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.219517477527377</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.07503394013946293</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1066762383829567</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.05005067887903916</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.07631548817721839</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.07941994036839628</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.1368120960949892</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.1981884594575975</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.1068430434123738</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.09236025225756928</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2582147369138253</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.01075493797995853</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.1516336270940284</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.1008319055776521</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.1613266943858216</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.004257071341855145</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.1527256815035914</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1198897860343044</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1569351660618414</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.1413480786855583</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.02846112942859752</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0.06984447139519975</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.009914504001291036</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.006335493443797966</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-0.2132721817254239</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.01953526362623821</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.2106332992874178</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-0.1764800434451671</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.345814311494867</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0.08319664993808815</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.1067741211512649</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0.1626052005880836</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.01102370504500045</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.1470955831934179</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.01594511287330602</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>-0.06220434912751557</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.1799624571137389</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.09247401670397259</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.09938044767452085</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>-0.1737944096717778</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>PC8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3080340370679903</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1886309416477043</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.17985840249897</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0350572586733179</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1393105200562207</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.09887908718909834</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.02587547238954832</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.1279039629221136</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.05749514337544707</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.2142381474278501</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.08496583372590656</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.3362626499244982</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.07200880888810762</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.01449940262797669</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.01032751332881804</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.09807737704965125</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1164628623380116</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.003679106944211689</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1380020662845615</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0459660876848422</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.1133444798198425</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1471647898365243</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.08183604409775316</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.09137394522384901</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.165367971824552</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.05708805584244582</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.1617595088467771</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.06809637145765168</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.05174437234784237</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.196970623904424</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.1034859199698152</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.08753487627212923</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0350264932954976</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.04596608768484219</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.1266090564416672</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.01093123367269412</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.005274839400396334</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.09980042132458183</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.09990931317685915</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.07346062884026036</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.05826167308863903</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.02880838950410433</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.10814267308665</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.003391543732765755</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.1469010385040518</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.08500543327395782</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0.1758401550832454</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.09084539323142886</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0.1746985774058938</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-0.02223348697145437</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-0.02917550481481186</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1354326043982562</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-0.004070969206724878</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-0.1119501167877965</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.1052365135767822</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-0.297296905205403</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-0.06438047930358236</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.02345897789138873</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.1815825546784141</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-0.1114044491427228</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.1056137933132731</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.001759712168761962</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-0.04500758719659655</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.118484079314655</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>-0.1368852238257931</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>-0.1120964474223326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PC5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PC6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PC7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PC8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.156334555625567</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.347952006727331</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.243100941288013</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.628228686436922</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.512334382183663</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.98758800042374</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.063986129735828</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.116259724358095</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.958061997250586</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.560955970356331</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.419229721570358</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7064549535764516</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7250062489904603</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3328047684342314</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6246662997950356</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.650972508730938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.986598848597468</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.96312823128304</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.38593225209088</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.898775759188454</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4271228655483781</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1878024894347493</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8530518474196286</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9287577843055468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.273504527559645</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.846245630909504</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.6238376163449442</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.097538699781897</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.40330131962285</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2.129099527266418</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9564663016877835</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-3.048184509393713</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-4.497101726712387</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.246087232875881</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.209755969566173</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.003813066732748708</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.6130389538477867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1220960434920485</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-2.133464449890837</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.9845279886345755</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-4.030967884992076</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.24355209076451</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.3500068200501354</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.250887307032423</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.2904105628241167</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.405170880858439</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.9337780017412234</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.6935872506255178</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.156859733657564</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.484104436754912</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.818886143824242</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.02998926190296605</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.258360758273066</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.891200528305778</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1.015869146147826</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3920519890278135</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-3.040983124142131</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.314856665190389</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.462215101323802</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3490885025060159</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1014706949356697</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.760135151708135</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3899263394227865</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5377630385024128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.8738931671062747</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.161519537495452</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.197911912349334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.046404019492258</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.205544855636058</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.594661984321279</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1141496770622351</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6633641112303468</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.485967994415687</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.01350231647091837</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8443566167928186</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.003463217779417</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.439304852903881</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2862094945075634</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.714970984422114</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3520889455405313</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.029749339681138</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.380399390159898</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.916805294418987</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.3531223609002641</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4844918032635323</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1952340613297689</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1.219982751149915</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.011926148972892</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.5581627500995011</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.881694178260757</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.150316574841775</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.390681405956999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.266017926973768</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.3176978340182147</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.6240423987818</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1.55060515381623</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.939560461179753</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.802006328749112</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3176895941767349</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3.172639578422007</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.8823759450042427</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2.680229411222057</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-2.542795312942022</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.556891762788591</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.88129761590566</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.450983861832352</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.009170730225243</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-2.066005322815068</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.8302890786076285</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.899355963366471</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.927326062152237</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.164751775389687</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-3.841399983937412</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.893069643191772</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4618902527878236</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03004745586827717</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.56899408088169</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.3436211567642489</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.9760698421438596</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1501530418366054</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.11615045142725</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.6814858468289371</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-3.445150139171037</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-4.704263755482862</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.8637148402705003</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.041577713681579</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1.615235202203691</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1.700242000223761</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.778250016244854</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.550419663500766</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7418798716702959</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.330592005766049</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.218100824254061</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.7268603344981316</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2375388148275286</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1.438464689584012</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3022409864580773</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.650879419016748</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.09062672029686893</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.2088276087268251</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.195103134641706</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2260200074410063</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.589939082584395</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.350611712582166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.838471851613217</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.508206509326745</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.5883420895463998</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.143886814635461</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.5793540558502115</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.4476728029321236</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1.452060154637923</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1.234477483663185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.2988396406709139</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.821859857824443</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6132471520533026</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6709918645292474</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.9870044440017549</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5218964568873015</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3935797162008914</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1.639165341800114</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.203522107801718</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.917637740354747</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.5001917881534577</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.473194802981803</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-4.140091454132124</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2218452226533781</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.05718907256158411</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.1558101145148875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-5.187105060556488</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2703727588670299</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.7220150107483043</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5185473614499081</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.200471369473156</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.6594250043840033</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-3.027366025596427</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1.998094285402191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.001706603435135845</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.099435119991237</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.540845380541523</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.753856518395147</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.731332056366462</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3580269703367848</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.456462557751966</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8083760800567177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.06683391612404033</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.406352720683933</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.7642669779201309</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-2.215357769714626</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.228332786947069</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.631005662138988</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.102409953903825</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5218834078541399</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.281957654476829</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.766796008338561</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.2833289406952585</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.5522341900458213</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.409929796974018</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.054315052249658</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.516743088520488</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.877019279223414</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-4.286721717126271</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.420348154491413</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3367441458610929</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4.444516673153759</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.597666423751079</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.87507223261504</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.7903173024232305</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1.662558857045942</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.232375053674044</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.344422555213707</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.3006030633216427</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.272876676015827</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1510102533728507</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7506208653056409</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8354749139540635</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7216290238040249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.898692708591079</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.514812860241755</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.07663177019271317</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.532308735423434</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.289704015629269</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1.832951992081435</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.7639509472657733</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.3692791087204162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/PCA_OUTPUT.xlsx
+++ b/PCA_OUTPUT.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.081799385221059</v>
+        <v>15.34982500769136</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.318344253405672</v>
+        <v>7.954007648841377</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.680889098475325</v>
+        <v>5.773127817716277</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.620735348961334</v>
+        <v>5.46100834929694</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.311149571727719</v>
+        <v>4.153925092148899</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8766550844238137</v>
+        <v>3.3404440797601</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8426740404753976</v>
+        <v>2.96281661981627</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6711934037126267</v>
+        <v>2.631850521332479</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2721199590147373</v>
+        <v>0.2325731061771418</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1545562835603782</v>
+        <v>0.1205152674066875</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1120592732316884</v>
+        <v>0.08747163360176176</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.108049023264089</v>
+        <v>0.08274255074692333</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08740997144851463</v>
+        <v>0.062938258971953</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05844367229492092</v>
+        <v>0.05061278908727423</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05617826936502652</v>
+        <v>0.04489116090630711</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04474622691417512</v>
+        <v>0.0398765230504921</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,261 @@
           <t>無電柱化されている</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ぼーっとできる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ぼーっとしている人がいる</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>座って休憩したり、くつろいだりしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>座って休憩したり、くつろいだりしている人がいる</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>横になってくつろぎたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ゆったり読書をしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>読書をしたり、スマートフォン・タブレットを操作したりする人がいる</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>緑などに囲まれて自然を感じられる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>花壇や緑などを眺める人がいる</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>陽だまり、または日陰で過ごしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>日光を楽しむ、日陰で過ごす人がいる</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>眺めたいまちなみや景色があると感じる</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>まちなみや景色を眺める人がいる</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ぶらぶらと歩きたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>散歩をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>長居したい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>長時間滞在している人がいる（長時間：30分程度）</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ゆったりお茶をしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>お茶をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>体を軽く動かしてリラックスできる場所だと感じる（ヨガや体操・ストレッチ等）</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>友人や恋人と来て過ごしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>笑いながら話をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>複数人で飲食をしたい場所だと感じる（ピクニックを含む）</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>複数人で飲食をしている（ピクニックを含む）</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>人との新しい出会いがありそうな場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>会話・交流している人がいる</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>人が群がりそうな面白そう・雰囲気の良いものがある場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>何かに人が群がっている</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>沿道や近くでウィンドウショッピングを楽しみたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>沿道や近くでウィンドウショッピングや買い物をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>パフォーマンスができる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>魅力的なコンテンツがあり、子どもや大人が楽しく遊べる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>子どもや大人が夢中になって遊んでいる</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>写真や動画に映える・誰かにシェアしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>写真や動画を撮っている人がいる</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1人</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>家族</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>グループ</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>性別不明</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>乳幼児</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>小学生</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>中高生</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>大人</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>高齢者</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>スタスタ歩いている</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>のんびり歩いている</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>日本人</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>外国人</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>国籍不明</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -729,49 +984,202 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2073595114404187</v>
+        <v>-0.08534850554274383</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03997890726135556</v>
+        <v>0.04856792439846429</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3349310022301024</v>
+        <v>-0.04392493038757288</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3198139837066949</v>
+        <v>-0.09589664879612354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2283615669786968</v>
+        <v>-0.05642069579340824</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1995807574949012</v>
+        <v>-0.1546446141422828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1810519712197865</v>
+        <v>0.01971532714928531</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1506264117710138</v>
+        <v>0.07231404185527537</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4204057767599635</v>
+        <v>-0.05612760073394289</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1312135409880683</v>
+        <v>0.02913529393283943</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3276688865091275</v>
+        <v>-0.01925028171857335</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.09134775014805013</v>
+        <v>-0.1229409949493722</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.297977931464545</v>
+        <v>0.003839316694061614</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4320256648755919</v>
+        <v>-0.07230337757328294</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09158602215011938</v>
+        <v>-0.004963077384637239</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1930635970861115</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1700097884247341</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2088253248440161</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1777372237945484</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1661141490216749</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1932628286596227</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.04957045561244421</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1600956324229448</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.06669581150652611</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1559324571516148</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1112601120697068</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.134093419071911</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.07162448281958388</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.1734337704782038</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.09133110234690435</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2074059110613463</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.1622232805689139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1932777286612045</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.1661141490216748</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1546950724717852</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2181350463575707</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1490500281956529</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1930237685143598</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1948031209667911</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1736066912707054</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.1736224455314836</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1880328822112993</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1022573517240132</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1559216021773391</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1240390400362364</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.07876498232927276</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.1302200668059412</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.04165061590445898</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.2000131530005199</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.04419207240642526</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>-0.09023243519732596</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.008747811441326142</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.09003406465540237</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-0.03245389743654125</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.09841634764230117</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.03507559942019214</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.05584125464814082</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-0.009543995187549094</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>-0.06377021666217647</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.06277367813532703</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.008006682481024761</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>-0.05587121666548218</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1012821519698251</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1125720161436026</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>-0.05643759337909163</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.001505158909292955</v>
       </c>
     </row>
     <row r="4">
@@ -781,49 +1189,202 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2876200015531012</v>
+        <v>0.1218930844675857</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1014468822128703</v>
+        <v>-0.0004423804645767535</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2244905257259923</v>
+        <v>-0.219491571200608</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2150058403885254</v>
+        <v>-0.2412117394324266</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1655249602360992</v>
+        <v>0.1325457162960159</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4202656758564561</v>
+        <v>-0.1355826047472969</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2163353270347586</v>
+        <v>0.1421432703639517</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2289260330958046</v>
+        <v>-0.0606392850201262</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2148395300414874</v>
+        <v>0.2975880999432441</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09419723502051376</v>
+        <v>-0.06817205530976558</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2621532550634789</v>
+        <v>0.2394840744657771</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.4982021129131305</v>
+        <v>-0.03273814237767438</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.110945584246639</v>
+        <v>-0.1711901381605441</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1784285403175641</v>
+        <v>0.2993005918869401</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3017041933225034</v>
+        <v>0.06848732595592279</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1044876209507607</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.05059063731824854</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.001987639064855622</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04486384464153876</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.06184780584004525</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.05307464906641029</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.1887064272451395</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.08602169852171565</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2467935098834986</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.03832169812021611</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1565809911874882</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.06460491734172616</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2217286509295379</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1284711723904481</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1998871806111098</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.05336307733971057</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.008008699060245298</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.07171465866191973</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.06184780584004526</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.01679136832019024</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.04804738372649781</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.05710224039547798</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.1534529404293044</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.09575156784279441</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.07684401542027458</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.01328353700139644</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.117257369183882</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.01095842433575085</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.03668335208671224</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.09403241945988103</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.08136260730444142</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.06100072829229308</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-0.08861918870223738</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-0.002367281013327344</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>-0.02052356740133417</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>-0.1117227314000843</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>-0.1324501563120395</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.1396166007628733</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.05467077677797605</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.03170829348132699</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0421674625753115</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-0.1246521630387448</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.04631933700277763</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-0.09612856599456036</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-0.01540039624156659</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.1910142091495068</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.07299194110790384</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>-0.03452006358375884</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>-0.03979347734850584</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.06212695142744324</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.2275907682590456</v>
       </c>
     </row>
     <row r="5">
@@ -833,49 +1394,202 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01795920625538412</v>
+        <v>-0.04102646234353305</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2387699663399541</v>
+        <v>0.2884674716071809</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2527851698258993</v>
+        <v>0.1630888377067768</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2162335203381635</v>
+        <v>0.03741242174857975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2469524166973544</v>
+        <v>-0.1416905821158085</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3008710962830571</v>
+        <v>0.0882782641172789</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3992810142584882</v>
+        <v>-0.02703159644304834</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4413394397505497</v>
+        <v>0.03289728182672972</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1505452475784174</v>
+        <v>0.06466975267355989</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.3200302354912783</v>
+        <v>0.009618226862980601</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1489650957192237</v>
+        <v>0.1020696301936233</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3207694391974058</v>
+        <v>0.2006011337701197</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2462564385542507</v>
+        <v>0.2256092828196495</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1136182732077156</v>
+        <v>0.03382941114522319</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05075577766392334</v>
+        <v>0.1783184039713422</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0483709687169847</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.09666876664859975</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.07651242078889291</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06060870051347497</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.07650258821281869</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.1054609067169659</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.08625349747496772</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05743124937374629</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.01311851629359884</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.09870896722426728</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.09696422664245372</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1072309372154158</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.007889065876210227</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.03554414948779641</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1369603210091818</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.06368056551360789</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2007715327680044</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.1235374544932608</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07650258821281869</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.1169532329957666</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.05568374327412828</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.005645521083141305</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01042516287154563</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.02097051442421636</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0283957930366653</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.03567419116013269</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.1049979416292971</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.2703968225854526</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.2197915772369083</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.056473964463121</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.1507731922362562</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.1922693577803324</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.3395430325911005</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.1400631656405973</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.2419430743147312</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>-0.03291336376592015</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-0.1456598667568992</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.07017780701274641</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>-0.04887507639896909</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.08564071349172059</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>-0.02715281400193501</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-0.0983885991672698</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.01489058035196136</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-0.1310306838671951</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-0.05813387444199254</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.17183402628862</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-0.1504715075806927</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.1545569789497271</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.01983604817489852</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.003058842340918016</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.02305252419420429</v>
       </c>
     </row>
     <row r="6">
@@ -885,49 +1599,202 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4076141502744989</v>
+        <v>-0.134622854990871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6034218905346949</v>
+        <v>0.09674679244337807</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0149277754321699</v>
+        <v>0.03516848920960528</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2768945110657152</v>
+        <v>0.02291881055476548</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08965964127332637</v>
+        <v>0.08705052100360743</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.009213750708561157</v>
+        <v>-0.03687433308785612</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1175476451515616</v>
+        <v>0.1416200109635066</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3216673266024043</v>
+        <v>-0.03904034685670152</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04290634482955274</v>
+        <v>-0.007181499645219573</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08484887691243058</v>
+        <v>0.01981826823878729</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1396686628883818</v>
+        <v>-0.111975342668257</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1625946744111093</v>
+        <v>-0.04145097793817515</v>
       </c>
       <c r="N6" t="n">
-        <v>0.262538593133636</v>
+        <v>-0.06639784441690991</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07847703181657034</v>
+        <v>0.04206829225859495</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3706190067105525</v>
+        <v>-0.06995993031525084</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.06681974889843129</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.07606108942235318</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1012496808202874</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.01522585835732755</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2036939532925003</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.05376928444539468</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2038569493257168</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.06279943001653987</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.003115046467983438</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.07041744730301501</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04710829548355749</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1004794007624205</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1873297920062424</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.02677890809910881</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.01822124168234742</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.00385307832047022</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.04794254812506334</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.1322999554241729</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.2036939532925003</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.1688239566703189</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.04785576094817101</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.05195198659314337</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.0328466915165759</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.1083182061664918</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.09470958585555728</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1029939694344546</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.05022723219206211</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.09687421666857263</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1172711876361796</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.05617773611410559</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.1326727013380403</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1840420385906432</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.02183459138881019</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.1112934589279333</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.177146636926665</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.2284025512520184</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.1204584854934536</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-0.2523866786265975</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>-0.1722950845139559</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>-0.1399822914855523</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.2427220747757506</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.2226751363357619</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-0.218542955019689</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.05459244847101999</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-0.197156810920987</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-0.1296268300169511</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.04922230757591437</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-0.2256983394237042</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-0.1228161442156371</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>-0.1587612140578655</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.1023551997197098</v>
       </c>
     </row>
     <row r="7">
@@ -937,49 +1804,202 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3043457148815497</v>
+        <v>0.05190982525797102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0211131535202356</v>
+        <v>0.1634365758900605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06399359433956819</v>
+        <v>-0.01081504670734555</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1235320278295306</v>
+        <v>-0.1385145141193875</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3820904913302188</v>
+        <v>0.1953108021548486</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08673871802896711</v>
+        <v>0.04512505274359155</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1796847353218411</v>
+        <v>-0.1791710528922426</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01260745804462177</v>
+        <v>-0.1874305936814526</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006637168682216504</v>
+        <v>0.01703527910046822</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.6841277064087585</v>
+        <v>0.1608799893335311</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3697163620866502</v>
+        <v>-0.1693184295482864</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.2130326206940345</v>
+        <v>0.02348366341543908</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2105729023549537</v>
+        <v>-0.07079404331972954</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.005315128490997169</v>
+        <v>-0.002628668466114162</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.08422127601472085</v>
+        <v>0.1015638333487044</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.03490564709440668</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.05935997841913373</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.07322196725706469</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1591135447143444</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.059361329829904</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.007888888378658664</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.07667393546606073</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.0798099403694231</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1146031461729169</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1087947575807327</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0952647309275511</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.003646721049086071</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.06046635574561067</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.1447088323673534</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.1789456299710656</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.02597700859882043</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.009236128635136127</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.04154295208318062</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.05936132982990398</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.04074993990000586</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.06955345566943279</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.1006697530769208</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.03091883230932979</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.02974519263600126</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.1783219354035893</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.03744199750751934</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0808037829004557</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0147498004532995</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.01198914379641453</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.2155115407301698</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.07378377404593832</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.07139508291620655</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.04657661489607794</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.02110587130040374</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.1013836559352787</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.2474917290901135</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.2596712937848452</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.1658578150541003</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.1801608947875313</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.09447284141431521</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.05068214136806192</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.2136810138074843</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.198296769722956</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.1254749379108215</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.2832940609707638</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-0.08802941484091226</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.1854103105546387</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-0.02527364191360328</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>-0.01746096025848581</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.2578773519390787</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.07790482497712004</v>
       </c>
     </row>
     <row r="8">
@@ -989,49 +2009,202 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3128903094596723</v>
+        <v>-0.0968341817727503</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.170708528827804</v>
+        <v>0.05156832138853246</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2081585398486951</v>
+        <v>0.05565991682029398</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3801764061356022</v>
+        <v>-0.1439902590956583</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05936732550051865</v>
+        <v>0.03328756177911717</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2766932163083932</v>
+        <v>-0.04732944682164499</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6468529772872809</v>
+        <v>0.01846211783360141</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09874560890524467</v>
+        <v>0.2506898634567168</v>
       </c>
       <c r="J8" t="n">
-        <v>0.103542483633425</v>
+        <v>-0.05291220332085943</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1685392800212346</v>
+        <v>0.1791945834688562</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2182087145670029</v>
+        <v>-0.112615924395284</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04232532515191288</v>
+        <v>0.08497723609261652</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.06985163452282427</v>
+        <v>0.04918162713345998</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1301709383754512</v>
+        <v>0.000913842990874312</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2578456030526606</v>
+        <v>-0.06784985948541483</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.07703365116445197</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.0272450582955193</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.04828574233852441</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.0775835665378944</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.0692752191113899</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.01049296480082573</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.08152374536451847</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.132914612463467</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.03614837071016679</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01488204565619792</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.178144385087162</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.007023767994232832</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1267512724411807</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.1189626565464823</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.005108761166125522</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.04510979920279547</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1060189351471662</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.02744227527879677</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.06927521911138992</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.06110865492285746</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.02879918392580256</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.05391457733622023</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1380689204945416</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.04648790366292368</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.06031915170378493</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.05687795946846996</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.02350287193850991</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01918607321889127</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.08440456001721021</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1544669928606152</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.1673492244838083</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.037301839661507</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.07950977866148749</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0.05803776274984012</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.1045438813313074</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.01092585898010441</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0.2137261470656301</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.05144971532535837</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1871157474895671</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.07712970829089645</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-0.127633439726049</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.1497956825590035</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.2248766934253233</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-0.05175221104137161</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.2400275743458478</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-0.195170012662278</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.3073774163584442</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-0.2322899295739239</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.3211992254714511</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>-0.244076050215832</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>-0.05804377240387576</v>
       </c>
     </row>
     <row r="9">
@@ -1041,49 +2214,202 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1627613675649931</v>
+        <v>-0.08187563990341568</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06367386305902224</v>
+        <v>-0.1059503246794903</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1856901133810116</v>
+        <v>0.05174730745981075</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01521524404384593</v>
+        <v>0.08333856631049343</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5346311523736812</v>
+        <v>-0.07277277292614885</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2287546437604402</v>
+        <v>0.08857700283255247</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1008768746595377</v>
+        <v>-0.02037821739677104</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02853801301572218</v>
+        <v>0.004543186896722706</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1773133528887933</v>
+        <v>-0.05810407449397628</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1996402149212175</v>
+        <v>-0.100328080660402</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1631848489895981</v>
+        <v>0.06517334083479071</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1806274659881273</v>
+        <v>0.05948588829515816</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.2613401348798701</v>
+        <v>-0.08778690077810472</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.240682463787756</v>
+        <v>-0.1262303437908564</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5734228849330404</v>
+        <v>-0.08288298531454888</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.09124800579852965</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.1048831499947347</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.1337057710382741</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.1685620917422168</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.1981884594575974</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.1352476279085698</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02535846622952279</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.02151595973190143</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.08911655112985349</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.08073820135291045</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.06199538553972844</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.219517477527377</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.07503394013946293</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1066762383829567</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.05005067887903916</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.07631548817721839</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.07941994036839628</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.1368120960949892</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.1981884594575975</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.1068430434123738</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.09236025225756928</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2582147369138253</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.01075493797995853</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.1516336270940284</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.1008319055776521</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.1613266943858216</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.004257071341855145</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.1527256815035914</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1198897860343044</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1569351660618414</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.1413480786855583</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.02846112942859752</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0.06984447139519975</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.009914504001291036</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.006335493443797966</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-0.2132721817254239</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.01953526362623821</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.2106332992874178</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-0.1764800434451671</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.345814311494867</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0.08319664993808815</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.1067741211512649</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0.1626052005880836</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.01102370504500045</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.1470955831934179</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.01594511287330602</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>-0.06220434912751557</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.1799624571137389</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.09247401670397259</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.09938044767452085</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>-0.1737944096717778</v>
       </c>
     </row>
     <row r="10">
@@ -1093,49 +2419,202 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002575163681913324</v>
+        <v>-0.3080340370679903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4035698158061264</v>
+        <v>0.1886309416477043</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1716483284698927</v>
+        <v>-0.17985840249897</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1626826044659723</v>
+        <v>-0.0350572586733179</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4394777368934784</v>
+        <v>0.1393105200562207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2248360355643848</v>
+        <v>0.09887908718909834</v>
       </c>
       <c r="H10" t="n">
-        <v>0.082249833054792</v>
+        <v>-0.02587547238954832</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2236987656107244</v>
+        <v>-0.1279039629221136</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.05438294306742272</v>
+        <v>-0.05749514337544707</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01859023135649186</v>
+        <v>-0.2142381474278501</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1107871261389601</v>
+        <v>-0.08496583372590656</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1513478972732991</v>
+        <v>-0.3362626499244982</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.460180697623917</v>
+        <v>0.07200880888810762</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.03499246289792607</v>
+        <v>-0.01449940262797669</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.4787735116965176</v>
+        <v>0.01032751332881804</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.09807737704965125</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1164628623380116</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.003679106944211689</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1380020662845615</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0459660876848422</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.1133444798198425</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1471647898365243</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.08183604409775316</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.09137394522384901</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.165367971824552</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.05708805584244582</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.1617595088467771</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.06809637145765168</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.05174437234784237</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.196970623904424</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.1034859199698152</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.08753487627212923</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0350264932954976</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.04596608768484219</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.1266090564416672</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.01093123367269412</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.005274839400396334</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.09980042132458183</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.09990931317685915</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.07346062884026036</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.05826167308863903</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.02880838950410433</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.10814267308665</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.003391543732765755</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.1469010385040518</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.08500543327395782</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0.1758401550832454</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.09084539323142886</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0.1746985774058938</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-0.02223348697145437</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-0.02917550481481186</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1354326043982562</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-0.004070969206724878</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-0.1119501167877965</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.1052365135767822</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-0.297296905205403</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-0.06438047930358236</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.02345897789138873</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.1815825546784141</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-0.1114044491427228</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.1056137933132731</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.001759712168761962</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-0.04500758719659655</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.118484079314655</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>-0.1368852238257931</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>-0.1120964474223326</v>
       </c>
     </row>
   </sheetData>
@@ -1204,28 +2683,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5709577934375438</v>
+        <v>-2.156334555625567</v>
       </c>
       <c r="C2" t="n">
-        <v>1.393642788015002</v>
+        <v>-2.347952006727331</v>
       </c>
       <c r="D2" t="n">
-        <v>2.307407187822257</v>
+        <v>-3.243100941288013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7230372148379944</v>
+        <v>1.628228686436922</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.828567571224094</v>
+        <v>3.512334382183663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4573753791664582</v>
+        <v>-1.98758800042374</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.499106464287385</v>
+        <v>1.063986129735828</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2288549564217516</v>
+        <v>3.116259724358095</v>
       </c>
     </row>
     <row r="3">
@@ -1233,28 +2712,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9693054081102606</v>
+        <v>-1.958061997250586</v>
       </c>
       <c r="C3" t="n">
-        <v>1.348561348528053</v>
+        <v>-2.560955970356331</v>
       </c>
       <c r="D3" t="n">
-        <v>2.108859960267853</v>
+        <v>-2.419229721570358</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3997965259687138</v>
+        <v>0.7064549535764516</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1526400535739548</v>
+        <v>0.7250062489904603</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7917099109335818</v>
+        <v>0.3328047684342314</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2386924184977029</v>
+        <v>0.6246662997950356</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6088755333061798</v>
+        <v>1.650972508730938</v>
       </c>
     </row>
     <row r="4">
@@ -1262,28 +2741,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.885660932924796</v>
+        <v>5.986598848597468</v>
       </c>
       <c r="C4" t="n">
-        <v>1.96961383043763</v>
+        <v>-1.96312823128304</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2887790894385</v>
+        <v>-2.38593225209088</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1346142330882356</v>
+        <v>2.898775759188454</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.313675750720829</v>
+        <v>0.4271228655483781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1740772819642027</v>
+        <v>0.1878024894347493</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6162311040531974</v>
+        <v>0.8530518474196286</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4921403872112286</v>
+        <v>0.9287577843055468</v>
       </c>
     </row>
     <row r="5">
@@ -1291,28 +2770,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.854529674451282</v>
+        <v>3.273504527559645</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2514727370303084</v>
+        <v>-3.846245630909504</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7675448787905494</v>
+        <v>-0.6238376163449442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3520380335929264</v>
+        <v>5.097538699781897</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4873529755380424</v>
+        <v>3.40330131962285</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2865274159137359</v>
+        <v>-2.129099527266418</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5372881723922416</v>
+        <v>0.9564663016877835</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8115624832250035</v>
+        <v>-3.048184509393713</v>
       </c>
     </row>
     <row r="6">
@@ -1320,28 +2799,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5336807913867649</v>
+        <v>-4.497101726712387</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.136688725065861</v>
+        <v>-2.246087232875881</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4328444332322232</v>
+        <v>-1.209755969566173</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.908838029170808</v>
+        <v>0.003813066732748708</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6210279183148588</v>
+        <v>-0.6130389538477867</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8810939561397334</v>
+        <v>0.1220960434920485</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02783567939232532</v>
+        <v>-2.133464449890837</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1378087308760611</v>
+        <v>-0.9845279886345755</v>
       </c>
     </row>
     <row r="7">
@@ -1349,28 +2828,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.788695737781962</v>
+        <v>-4.030967884992076</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07100880314725021</v>
+        <v>-3.24355209076451</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5819750881887906</v>
+        <v>-0.3500068200501354</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1802320257059225</v>
+        <v>-1.250887307032423</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1143291887192208</v>
+        <v>-0.2904105628241167</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.07038880278233381</v>
+        <v>2.405170880858439</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.015196709911831</v>
+        <v>-0.9337780017412234</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.000438544599176</v>
+        <v>-0.6935872506255178</v>
       </c>
     </row>
     <row r="8">
@@ -1378,28 +2857,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.907522723292487</v>
+        <v>-1.156859733657564</v>
       </c>
       <c r="C8" t="n">
-        <v>2.098314584094426</v>
+        <v>-2.484104436754912</v>
       </c>
       <c r="D8" t="n">
-        <v>1.442553595002394</v>
+        <v>-2.818886143824242</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4207133819339607</v>
+        <v>-0.02998926190296605</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2580354998815543</v>
+        <v>-1.258360758273066</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3519245350553148</v>
+        <v>1.891200528305778</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6193194525352492</v>
+        <v>-1.015869146147826</v>
       </c>
       <c r="I8" t="n">
-        <v>0.238517147493054</v>
+        <v>0.3920519890278135</v>
       </c>
     </row>
     <row r="9">
@@ -1407,28 +2886,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.075583264101012</v>
+        <v>-3.040983124142131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1945030743171141</v>
+        <v>-2.314856665190389</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007358951396545421</v>
+        <v>-1.462215101323802</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8085320634505642</v>
+        <v>0.3490885025060159</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.618266384841362</v>
+        <v>-0.1014706949356697</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09677818049191517</v>
+        <v>1.760135151708135</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3897647890298909</v>
+        <v>-0.3899263394227865</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1008530645140418</v>
+        <v>0.5377630385024128</v>
       </c>
     </row>
     <row r="10">
@@ -1436,28 +2915,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.454428362547113</v>
+        <v>-0.8738931671062747</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5788653226717787</v>
+        <v>-3.161519537495452</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.451395983637409</v>
+        <v>4.197911912349334</v>
       </c>
       <c r="E10" t="n">
-        <v>1.794998086398935</v>
+        <v>2.046404019492258</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05379328505080303</v>
+        <v>1.205544855636058</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4670847308217519</v>
+        <v>2.594661984321279</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.470861458949874</v>
+        <v>0.1141496770622351</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2275375810551221</v>
+        <v>0.6633641112303468</v>
       </c>
     </row>
     <row r="11">
@@ -1465,28 +2944,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6957632526167522</v>
+        <v>-0.485967994415687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08928905564389268</v>
+        <v>-0.01350231647091837</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2547651656815746</v>
+        <v>0.8443566167928186</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.161440101793728</v>
+        <v>-2.003463217779417</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1529830015988635</v>
+        <v>-1.439304852903881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03181131267933874</v>
+        <v>-0.2862094945075634</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3550777061506348</v>
+        <v>3.714970984422114</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2552793110519538</v>
+        <v>0.3520889455405313</v>
       </c>
     </row>
     <row r="12">
@@ -1494,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.514349075645999</v>
+        <v>4.029749339681138</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.769742787851279</v>
+        <v>-2.380399390159898</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.810973283944312</v>
+        <v>8.916805294418987</v>
       </c>
       <c r="E12" t="n">
-        <v>2.637620333869278</v>
+        <v>-0.3531223609002641</v>
       </c>
       <c r="F12" t="n">
-        <v>1.165235612166115</v>
+        <v>0.4844918032635323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007893144915710006</v>
+        <v>0.1952340613297689</v>
       </c>
       <c r="H12" t="n">
-        <v>1.360678423620262</v>
+        <v>-1.219982751149915</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6535767044106365</v>
+        <v>1.011926148972892</v>
       </c>
     </row>
     <row r="13">
@@ -1523,28 +3002,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.536526280730966</v>
+        <v>-0.5581627500995011</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.756932499406431</v>
+        <v>-1.881694178260757</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.214339815394302</v>
+        <v>1.150316574841775</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5094195787502303</v>
+        <v>-1.390681405956999</v>
       </c>
       <c r="F13" t="n">
-        <v>1.174674619588115</v>
+        <v>-1.266017926973768</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3457366784584422</v>
+        <v>-0.3176978340182147</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03708322392328144</v>
+        <v>2.6240423987818</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5738641955022192</v>
+        <v>-1.55060515381623</v>
       </c>
     </row>
     <row r="14">
@@ -1552,28 +3031,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.06310593578519</v>
+        <v>5.939560461179753</v>
       </c>
       <c r="C14" t="n">
-        <v>1.553693504310039</v>
+        <v>-2.802006328749112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4694036252939363</v>
+        <v>0.3176895941767349</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8394730863495971</v>
+        <v>-3.172639578422007</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4075759139947688</v>
+        <v>-0.8823759450042427</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3859515759653724</v>
+        <v>-2.680229411222057</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4050133382981038</v>
+        <v>-2.542795312942022</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6984044852106855</v>
+        <v>2.556891762788591</v>
       </c>
     </row>
     <row r="15">
@@ -1581,28 +3060,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.432340643435339</v>
+        <v>0.88129761590566</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.033862408889221</v>
+        <v>-1.450983861832352</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6588762433728309</v>
+        <v>1.009170730225243</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.906466389549261</v>
+        <v>-2.066005322815068</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0967514957189511</v>
+        <v>-0.8302890786076285</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7686704450112789</v>
+        <v>-1.899355963366471</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9694776877131328</v>
+        <v>3.927326062152237</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5322840869360653</v>
+        <v>-2.164751775389687</v>
       </c>
     </row>
     <row r="16">
@@ -1610,28 +3089,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.365152874640795</v>
+        <v>-3.841399983937412</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.279012929219763</v>
+        <v>-1.893069643191772</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.08071522019780389</v>
+        <v>0.4618902527878236</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2181553364917628</v>
+        <v>0.03004745586827717</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5355395112804585</v>
+        <v>-2.56899408088169</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2015026420414561</v>
+        <v>-0.3436211567642489</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.9912848612111378</v>
+        <v>-0.9760698421438596</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.785957779736446</v>
+        <v>0.1501530418366054</v>
       </c>
     </row>
     <row r="17">
@@ -1639,28 +3118,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6459494985809033</v>
+        <v>12.11615045142725</v>
       </c>
       <c r="C17" t="n">
-        <v>2.519732551156307</v>
+        <v>-0.6814858468289371</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9006854913408356</v>
+        <v>-3.445150139171037</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5464198179166398</v>
+        <v>-4.704263755482862</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6465799977064782</v>
+        <v>-0.8637148402705003</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.898719620911785</v>
+        <v>1.041577713681579</v>
       </c>
       <c r="H17" t="n">
-        <v>2.35580631807522</v>
+        <v>-1.615235202203691</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2359863596850399</v>
+        <v>-1.700242000223761</v>
       </c>
     </row>
     <row r="18">
@@ -1668,28 +3147,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.449957196012476</v>
+        <v>-0.778250016244854</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.930150462370299</v>
+        <v>1.550419663500766</v>
       </c>
       <c r="D18" t="n">
-        <v>0.81905364502024</v>
+        <v>0.7418798716702959</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8045896804548137</v>
+        <v>1.330592005766049</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3411605967208752</v>
+        <v>-1.218100824254061</v>
       </c>
       <c r="G18" t="n">
-        <v>1.424925832593097</v>
+        <v>-0.7268603344981316</v>
       </c>
       <c r="H18" t="n">
-        <v>1.096080693645848</v>
+        <v>0.2375388148275286</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7919807421252152</v>
+        <v>-1.438464689584012</v>
       </c>
     </row>
     <row r="19">
@@ -1697,28 +3176,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.648114555315179</v>
+        <v>0.3022409864580773</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3185718823886154</v>
+        <v>3.650879419016748</v>
       </c>
       <c r="D19" t="n">
-        <v>1.042488006619513</v>
+        <v>-0.09062672029686893</v>
       </c>
       <c r="E19" t="n">
-        <v>2.639536060524707</v>
+        <v>-0.2088276087268251</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7188345576963883</v>
+        <v>1.195103134641706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1668385511048936</v>
+        <v>0.2260200074410063</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6542794279908973</v>
+        <v>-0.589939082584395</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8612901961049942</v>
+        <v>2.350611712582166</v>
       </c>
     </row>
     <row r="20">
@@ -1726,28 +3205,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.1558919678896</v>
+        <v>3.838471851613217</v>
       </c>
       <c r="C20" t="n">
-        <v>2.960753523020962</v>
+        <v>5.508206509326745</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.549485289822583</v>
+        <v>-0.5883420895463998</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.02165460360063749</v>
+        <v>4.143886814635461</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1619760291663887</v>
+        <v>-0.5793540558502115</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04032894129802856</v>
+        <v>-0.4476728029321236</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3263016620921311</v>
+        <v>-1.452060154637923</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.012837820485301</v>
+        <v>-1.234477483663185</v>
       </c>
     </row>
     <row r="21">
@@ -1755,28 +3234,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8939377484633131</v>
+        <v>-0.2988396406709139</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.075448732587849</v>
+        <v>2.821859857824443</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1476300177421983</v>
+        <v>0.6132471520533026</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.900661611099609</v>
+        <v>0.6709918645292474</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.8137815419643024</v>
+        <v>-0.9870044440017549</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.347620662262522</v>
+        <v>0.5218964568873015</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1698027690182617</v>
+        <v>0.3935797162008914</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1361821222558245</v>
+        <v>-1.639165341800114</v>
       </c>
     </row>
     <row r="22">
@@ -1784,28 +3263,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.332529127159932</v>
+        <v>-2.203522107801718</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1529455894741026</v>
+        <v>1.917637740354747</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.362601869305692</v>
+        <v>-0.5001917881534577</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.489949410439971</v>
+        <v>1.473194802981803</v>
       </c>
       <c r="F22" t="n">
-        <v>1.265836164220299</v>
+        <v>-4.140091454132124</v>
       </c>
       <c r="G22" t="n">
-        <v>3.514694715316679</v>
+        <v>0.2218452226533781</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1563272115028582</v>
+        <v>-0.05718907256158411</v>
       </c>
       <c r="I22" t="n">
-        <v>1.093848734135409</v>
+        <v>-0.1558101145148875</v>
       </c>
     </row>
     <row r="23">
@@ -1813,28 +3292,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.683097114699778</v>
+        <v>-5.187105060556488</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.026391348419286</v>
+        <v>0.2703727588670299</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08788552331629171</v>
+        <v>-0.7220150107483043</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.687784154265927</v>
+        <v>0.5185473614499081</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.370844896228947</v>
+        <v>-1.200471369473156</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2948159634393925</v>
+        <v>-0.6594250043840033</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.8577887513167609</v>
+        <v>-3.027366025596427</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5352705640873204</v>
+        <v>-1.998094285402191</v>
       </c>
     </row>
     <row r="24">
@@ -1842,28 +3321,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.536844265419088</v>
+        <v>0.001706603435135845</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.254800714396961</v>
+        <v>3.099435119991237</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.9250550185713945</v>
+        <v>2.540845380541523</v>
       </c>
       <c r="E24" t="n">
-        <v>2.010308662013348</v>
+        <v>1.753856518395147</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1247303696486535</v>
+        <v>0.731332056366462</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.7212502141923283</v>
+        <v>0.3580269703367848</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1510573733237479</v>
+        <v>-1.456462557751966</v>
       </c>
       <c r="I24" t="n">
-        <v>2.820845428619071</v>
+        <v>0.8083760800567177</v>
       </c>
     </row>
     <row r="25">
@@ -1871,28 +3350,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.950029309819472</v>
+        <v>-0.06683391612404033</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0969378408209082</v>
+        <v>3.406352720683933</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3627898200681225</v>
+        <v>-0.7642669779201309</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1588752085215795</v>
+        <v>-2.215357769714626</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.9782776956995345</v>
+        <v>2.228332786947069</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.4653769346155572</v>
+        <v>5.631005662138988</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.183043921424399</v>
+        <v>2.102409953903825</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1720331160357995</v>
+        <v>0.5218834078541399</v>
       </c>
     </row>
     <row r="26">
@@ -1900,28 +3379,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.732845376442652</v>
+        <v>-2.281957654476829</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.114296660224143</v>
+        <v>2.766796008338561</v>
       </c>
       <c r="D26" t="n">
-        <v>2.744826007983692</v>
+        <v>-0.2833289406952585</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.7016862253883611</v>
+        <v>-0.5522341900458213</v>
       </c>
       <c r="F26" t="n">
-        <v>4.576928891402019</v>
+        <v>-3.409929796974018</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.7539015544888624</v>
+        <v>-3.054315052249658</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.8584053039732548</v>
+        <v>1.516743088520488</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0636674158319903</v>
+        <v>2.877019279223414</v>
       </c>
     </row>
     <row r="27">
@@ -1929,28 +3408,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.01310255161761</v>
+        <v>-4.286721717126271</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.7112666355742</v>
+        <v>2.420348154491413</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7702801717282743</v>
+        <v>0.3367441458610929</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3024056727435064</v>
+        <v>-4.444516673153759</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.167700332676587</v>
+        <v>3.597666423751079</v>
       </c>
       <c r="G27" t="n">
-        <v>0.575180752842094</v>
+        <v>-1.87507223261504</v>
       </c>
       <c r="H27" t="n">
-        <v>1.53810675543324</v>
+        <v>-0.7903173024232305</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.7849871325371197</v>
+        <v>-1.662558857045942</v>
       </c>
     </row>
     <row r="28">
@@ -1958,28 +3437,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.126093793865423</v>
+        <v>4.232375053674044</v>
       </c>
       <c r="C28" t="n">
-        <v>2.805331071653435</v>
+        <v>4.344422555213707</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.850666653048362</v>
+        <v>-0.3006030633216427</v>
       </c>
       <c r="E28" t="n">
-        <v>0.695068087425038</v>
+        <v>2.272876676015827</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1586048819042795</v>
+        <v>-0.1510102533728507</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2044266239167033</v>
+        <v>0.7506208653056409</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.390187317122922</v>
+        <v>0.8354749139540635</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5065043956340645</v>
+        <v>0.7216290238040249</v>
       </c>
     </row>
     <row r="29">
@@ -1987,28 +3466,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.479210245602834</v>
+        <v>-2.898692708591079</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8748061122286267</v>
+        <v>3.514812860241755</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218828419505239</v>
+        <v>0.07663177019271317</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7250713994918236</v>
+        <v>-2.532308735423434</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.32316223634631</v>
+        <v>4.289704015629269</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.885428701158275</v>
+        <v>-1.832951992081435</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.108959071860211</v>
+        <v>-0.7639509472657733</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7958546272672853</v>
+        <v>-0.3692791087204162</v>
       </c>
     </row>
   </sheetData>

--- a/PCA_OUTPUT.xlsx
+++ b/PCA_OUTPUT.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.081799385221059</v>
+        <v>15.34982500769136</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.318344253405672</v>
+        <v>7.954007648841377</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.680889098475325</v>
+        <v>5.773127817716277</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.620735348961334</v>
+        <v>5.46100834929694</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.311149571727719</v>
+        <v>4.153925092148899</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8766550844238137</v>
+        <v>3.3404440797601</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8426740404753976</v>
+        <v>2.96281661981627</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6711934037126267</v>
+        <v>2.631850521332479</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2721199590147373</v>
+        <v>0.2325731061771418</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1545562835603782</v>
+        <v>0.1205152674066875</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1120592732316884</v>
+        <v>0.08747163360176176</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.108049023264089</v>
+        <v>0.08274255074692333</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08740997144851463</v>
+        <v>0.062938258971953</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05844367229492092</v>
+        <v>0.05061278908727423</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05617826936502652</v>
+        <v>0.04489116090630711</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04474622691417512</v>
+        <v>0.0398765230504921</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,261 @@
           <t>無電柱化されている</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ぼーっとできる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ぼーっとしている人がいる</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>座って休憩したり、くつろいだりしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>座って休憩したり、くつろいだりしている人がいる</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>横になってくつろぎたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ゆったり読書をしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>読書をしたり、スマホ・タブレットを操作する人がいる</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>緑などに囲まれて自然を感じられる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>花壇や緑などを眺める人がいる</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>陽だまり、または日陰で過ごしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>日光を楽しむ、日陰で過ごす人がいる</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>眺めたいまちなみや景色があると感じる</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>まちなみや景色を眺める人がいる</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ぶらぶらと歩きたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>散歩をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>長居したい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>長時間滞在している人がいる（30分程度）</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ゆったりお茶をしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>お茶をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>体を軽く動かしてリラックスできる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>友人や恋人と来て過ごしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>笑いながら話をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>複数人で飲食をしたい場所だと感じる（ピクニックを含む）</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>複数人で飲食をしている（ピクニックを含む）</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>人との新しい出会いがありそうな場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>会話・交流している人がいる</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>人が群がりそうな雰囲気の良いものがある場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>何かに人が群がっている</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>近くでウィンドウショッピングを楽しみたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>近くでウィンドウショッピングや買い物をしている人がいる</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>パフォーマンスができる場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>魅力的なコンテンツがあり、子供や大人が遊べると感じる</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>子どもや大人が夢中になって遊んでいる</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>写真や動画に映える・誰かにシェアしたい場所だと感じる</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>写真や動画を撮っている人がいる</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1人</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>家族</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>グループ</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>性別不明</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>乳幼児</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>小学生</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>中高生</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>大人</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>高齢者</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>スタスタ歩いている</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>のんびり歩いている</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>日本人</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>外国人</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>国籍不明</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -729,49 +984,202 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2073595114404187</v>
+        <v>-0.08534850554274383</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03997890726135556</v>
+        <v>0.04856792439846429</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3349310022301024</v>
+        <v>-0.04392493038757288</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3198139837066949</v>
+        <v>-0.09589664879612354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2283615669786968</v>
+        <v>-0.05642069579340824</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1995807574949012</v>
+        <v>-0.1546446141422828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1810519712197865</v>
+        <v>0.01971532714928531</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1506264117710138</v>
+        <v>0.07231404185527537</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4204057767599635</v>
+        <v>-0.05612760073394289</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1312135409880683</v>
+        <v>0.02913529393283943</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3276688865091275</v>
+        <v>-0.01925028171857335</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.09134775014805013</v>
+        <v>-0.1229409949493722</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.297977931464545</v>
+        <v>0.003839316694061614</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4320256648755919</v>
+        <v>-0.07230337757328294</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09158602215011938</v>
+        <v>-0.004963077384637239</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1930635970861115</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1700097884247341</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2088253248440161</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1777372237945484</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1661141490216749</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1932628286596227</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.04957045561244421</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1600956324229448</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.06669581150652611</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1559324571516148</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1112601120697068</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.134093419071911</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.07162448281958388</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.1734337704782038</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.09133110234690435</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2074059110613463</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.1622232805689139</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1932777286612045</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.1661141490216748</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1546950724717852</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2181350463575707</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1490500281956529</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1930237685143598</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1948031209667911</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1736066912707054</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.1736224455314836</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1880328822112993</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1022573517240132</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1559216021773391</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1240390400362364</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.07876498232927276</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.1302200668059412</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.04165061590445898</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.2000131530005199</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.04419207240642526</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>-0.09023243519732596</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.008747811441326142</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.09003406465540237</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-0.03245389743654125</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.09841634764230117</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.03507559942019214</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.05584125464814082</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-0.009543995187549094</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>-0.06377021666217647</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.06277367813532703</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.008006682481024761</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>-0.05587121666548218</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1012821519698251</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1125720161436026</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>-0.05643759337909163</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.001505158909292955</v>
       </c>
     </row>
     <row r="4">
@@ -781,49 +1189,202 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2876200015531012</v>
+        <v>0.1218930844675857</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1014468822128703</v>
+        <v>-0.0004423804645767535</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2244905257259923</v>
+        <v>-0.219491571200608</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2150058403885254</v>
+        <v>-0.2412117394324266</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1655249602360992</v>
+        <v>0.1325457162960159</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4202656758564561</v>
+        <v>-0.1355826047472969</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2163353270347586</v>
+        <v>0.1421432703639517</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2289260330958046</v>
+        <v>-0.0606392850201262</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2148395300414874</v>
+        <v>0.2975880999432441</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09419723502051376</v>
+        <v>-0.06817205530976558</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2621532550634789</v>
+        <v>0.2394840744657771</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.4982021129131305</v>
+        <v>-0.03273814237767438</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.110945584246639</v>
+        <v>-0.1711901381605441</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1784285403175641</v>
+        <v>0.2993005918869401</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3017041933225034</v>
+        <v>0.06848732595592279</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1044876209507607</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.05059063731824854</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.001987639064855622</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04486384464153876</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.06184780584004525</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.05307464906641029</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.1887064272451395</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.08602169852171565</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2467935098834986</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.03832169812021611</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1565809911874882</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.06460491734172616</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2217286509295379</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1284711723904481</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1998871806111098</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.05336307733971057</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.008008699060245298</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.07171465866191973</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.06184780584004526</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.01679136832019024</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.04804738372649781</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.05710224039547798</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.1534529404293044</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.09575156784279441</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.07684401542027458</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.01328353700139644</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.117257369183882</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.01095842433575085</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.03668335208671224</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.09403241945988103</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.08136260730444142</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.06100072829229308</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-0.08861918870223738</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-0.002367281013327344</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>-0.02052356740133417</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>-0.1117227314000843</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>-0.1324501563120395</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.1396166007628733</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.05467077677797605</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.03170829348132699</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0421674625753115</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-0.1246521630387448</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.04631933700277763</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-0.09612856599456036</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-0.01540039624156659</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.1910142091495068</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.07299194110790384</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>-0.03452006358375884</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>-0.03979347734850584</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.06212695142744324</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.2275907682590456</v>
       </c>
     </row>
     <row r="5">
@@ -833,49 +1394,202 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01795920625538412</v>
+        <v>-0.04102646234353305</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2387699663399541</v>
+        <v>0.2884674716071809</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2527851698258993</v>
+        <v>0.1630888377067768</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2162335203381635</v>
+        <v>0.03741242174857975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2469524166973544</v>
+        <v>-0.1416905821158085</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3008710962830571</v>
+        <v>0.0882782641172789</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3992810142584882</v>
+        <v>-0.02703159644304834</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4413394397505497</v>
+        <v>0.03289728182672972</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1505452475784174</v>
+        <v>0.06466975267355989</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.3200302354912783</v>
+        <v>0.009618226862980601</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1489650957192237</v>
+        <v>0.1020696301936233</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3207694391974058</v>
+        <v>0.2006011337701197</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2462564385542507</v>
+        <v>0.2256092828196495</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1136182732077156</v>
+        <v>0.03382941114522319</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05075577766392334</v>
+        <v>0.1783184039713422</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0483709687169847</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.09666876664859975</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.07651242078889291</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06060870051347497</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.07650258821281869</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.1054609067169659</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.08625349747496772</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05743124937374629</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.01311851629359884</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.09870896722426728</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.09696422664245372</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1072309372154158</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.007889065876210227</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.03554414948779641</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1369603210091818</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.06368056551360789</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2007715327680044</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.1235374544932608</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07650258821281869</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.1169532329957666</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.05568374327412828</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.005645521083141305</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01042516287154563</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.02097051442421636</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0283957930366653</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.03567419116013269</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.1049979416292971</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.2703968225854526</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.2197915772369083</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.056473964463121</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.1507731922362562</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.1922693577803324</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.3395430325911005</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.1400631656405973</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.2419430743147312</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>-0.03291336376592015</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-0.1456598667568992</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.07017780701274641</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>-0.04887507639896909</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.08564071349172059</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>-0.02715281400193501</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-0.0983885991672698</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.01489058035196136</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-0.1310306838671951</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-0.05813387444199254</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.17183402628862</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-0.1504715075806927</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.1545569789497271</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.01983604817489852</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.003058842340918016</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.02305252419420429</v>
       </c>
     </row>
     <row r="6">
@@ -885,49 +1599,202 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4076141502744989</v>
+        <v>-0.134622854990871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6034218905346949</v>
+        <v>0.09674679244337807</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0149277754321699</v>
+        <v>0.03516848920960528</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2768945110657152</v>
+        <v>0.02291881055476548</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08965964127332637</v>
+        <v>0.08705052100360743</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.009213750708561157</v>
+        <v>-0.03687433308785612</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1175476451515616</v>
+        <v>0.1416200109635066</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3216673266024043</v>
+        <v>-0.03904034685670152</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04290634482955274</v>
+        <v>-0.007181499645219573</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08484887691243058</v>
+        <v>0.01981826823878729</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1396686628883818</v>
+        <v>-0.111975342668257</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1625946744111093</v>
+        <v>-0.04145097793817515</v>
       </c>
       <c r="N6" t="n">
-        <v>0.262538593133636</v>
+        <v>-0.06639784441690991</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07847703181657034</v>
+        <v>0.04206829225859495</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3706190067105525</v>
+        <v>-0.06995993031525084</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.06681974889843129</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.07606108942235318</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1012496808202874</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.01522585835732755</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2036939532925003</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.05376928444539468</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2038569493257168</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.06279943001653987</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.003115046467983438</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.07041744730301501</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04710829548355749</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1004794007624205</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1873297920062424</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.02677890809910881</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.01822124168234742</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.00385307832047022</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.04794254812506334</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.1322999554241729</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.2036939532925003</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.1688239566703189</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.04785576094817101</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.05195198659314337</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.0328466915165759</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.1083182061664918</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.09470958585555728</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1029939694344546</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.05022723219206211</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.09687421666857263</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1172711876361796</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.05617773611410559</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.1326727013380403</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1840420385906432</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.02183459138881019</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.1112934589279333</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.177146636926665</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.2284025512520184</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.1204584854934536</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-0.2523866786265975</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>-0.1722950845139559</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>-0.1399822914855523</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.2427220747757506</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.2226751363357619</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-0.218542955019689</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.05459244847101999</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-0.197156810920987</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-0.1296268300169511</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.04922230757591437</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-0.2256983394237042</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-0.1228161442156371</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>-0.1587612140578655</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.1023551997197098</v>
       </c>
     </row>
     <row r="7">
@@ -937,49 +1804,202 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3043457148815497</v>
+        <v>0.05190982525797102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0211131535202356</v>
+        <v>0.1634365758900605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06399359433956819</v>
+        <v>-0.01081504670734555</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1235320278295306</v>
+        <v>-0.1385145141193875</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3820904913302188</v>
+        <v>0.1953108021548486</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08673871802896711</v>
+        <v>0.04512505274359155</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1796847353218411</v>
+        <v>-0.1791710528922426</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01260745804462177</v>
+        <v>-0.1874305936814526</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006637168682216504</v>
+        <v>0.01703527910046822</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.6841277064087585</v>
+        <v>0.1608799893335311</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3697163620866502</v>
+        <v>-0.1693184295482864</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.2130326206940345</v>
+        <v>0.02348366341543908</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2105729023549537</v>
+        <v>-0.07079404331972954</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.005315128490997169</v>
+        <v>-0.002628668466114162</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.08422127601472085</v>
+        <v>0.1015638333487044</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.03490564709440668</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.05935997841913373</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.07322196725706469</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1591135447143444</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.059361329829904</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.007888888378658664</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.07667393546606073</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.0798099403694231</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1146031461729169</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1087947575807327</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0952647309275511</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.003646721049086071</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.06046635574561067</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.1447088323673534</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.1789456299710656</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.02597700859882043</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.009236128635136127</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.04154295208318062</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.05936132982990398</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.04074993990000586</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.06955345566943279</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.1006697530769208</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.03091883230932979</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.02974519263600126</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.1783219354035893</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.03744199750751934</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0808037829004557</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0147498004532995</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.01198914379641453</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.2155115407301698</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.07378377404593832</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.07139508291620655</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.04657661489607794</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.02110587130040374</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.1013836559352787</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.2474917290901135</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.2596712937848452</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.1658578150541003</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.1801608947875313</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.09447284141431521</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.05068214136806192</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.2136810138074843</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.198296769722956</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.1254749379108215</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.2832940609707638</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-0.08802941484091226</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.1854103105546387</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-0.02527364191360328</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>-0.01746096025848581</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.2578773519390787</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.07790482497712004</v>
       </c>
     </row>
     <row r="8">
@@ -989,49 +2009,202 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3128903094596723</v>
+        <v>-0.0968341817727503</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.170708528827804</v>
+        <v>0.05156832138853246</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2081585398486951</v>
+        <v>0.05565991682029398</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3801764061356022</v>
+        <v>-0.1439902590956583</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05936732550051865</v>
+        <v>0.03328756177911717</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2766932163083932</v>
+        <v>-0.04732944682164499</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6468529772872809</v>
+        <v>0.01846211783360141</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09874560890524467</v>
+        <v>0.2506898634567168</v>
       </c>
       <c r="J8" t="n">
-        <v>0.103542483633425</v>
+        <v>-0.05291220332085943</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1685392800212346</v>
+        <v>0.1791945834688562</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2182087145670029</v>
+        <v>-0.112615924395284</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04232532515191288</v>
+        <v>0.08497723609261652</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.06985163452282427</v>
+        <v>0.04918162713345998</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1301709383754512</v>
+        <v>0.000913842990874312</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2578456030526606</v>
+        <v>-0.06784985948541483</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.07703365116445197</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.0272450582955193</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.04828574233852441</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.0775835665378944</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.0692752191113899</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.01049296480082573</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.08152374536451847</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.132914612463467</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.03614837071016679</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01488204565619792</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.178144385087162</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.007023767994232832</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1267512724411807</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.1189626565464823</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.005108761166125522</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.04510979920279547</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1060189351471662</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.02744227527879677</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.06927521911138992</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.06110865492285746</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.02879918392580256</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.05391457733622023</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1380689204945416</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.04648790366292368</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.06031915170378493</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.05687795946846996</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.02350287193850991</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01918607321889127</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.08440456001721021</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1544669928606152</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.1673492244838083</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.037301839661507</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.07950977866148749</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0.05803776274984012</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.1045438813313074</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.01092585898010441</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0.2137261470656301</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.05144971532535837</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1871157474895671</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.07712970829089645</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-0.127633439726049</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.1497956825590035</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.2248766934253233</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-0.05175221104137161</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.2400275743458478</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-0.195170012662278</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.3073774163584442</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-0.2322899295739239</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.3211992254714511</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>-0.244076050215832</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>-0.05804377240387576</v>
       </c>
     </row>
     <row r="9">
@@ -1041,49 +2214,202 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1627613675649931</v>
+        <v>-0.08187563990341568</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06367386305902224</v>
+        <v>-0.1059503246794903</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1856901133810116</v>
+        <v>0.05174730745981075</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01521524404384593</v>
+        <v>0.08333856631049343</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5346311523736812</v>
+        <v>-0.07277277292614885</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2287546437604402</v>
+        <v>0.08857700283255247</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1008768746595377</v>
+        <v>-0.02037821739677104</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02853801301572218</v>
+        <v>0.004543186896722706</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1773133528887933</v>
+        <v>-0.05810407449397628</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1996402149212175</v>
+        <v>-0.100328080660402</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1631848489895981</v>
+        <v>0.06517334083479071</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1806274659881273</v>
+        <v>0.05948588829515816</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.2613401348798701</v>
+        <v>-0.08778690077810472</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.240682463787756</v>
+        <v>-0.1262303437908564</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5734228849330404</v>
+        <v>-0.08288298531454888</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.09124800579852965</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.1048831499947347</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.1337057710382741</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.1685620917422168</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.1981884594575974</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.1352476279085698</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02535846622952279</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.02151595973190143</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.08911655112985349</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.08073820135291045</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.06199538553972844</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.219517477527377</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.07503394013946293</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1066762383829567</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.05005067887903916</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.07631548817721839</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.07941994036839628</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.1368120960949892</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.1981884594575975</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.1068430434123738</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.09236025225756928</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2582147369138253</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.01075493797995853</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.1516336270940284</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.1008319055776521</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.1613266943858216</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.004257071341855145</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.1527256815035914</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1198897860343044</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1569351660618414</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.1413480786855583</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.02846112942859752</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0.06984447139519975</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.009914504001291036</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.006335493443797966</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-0.2132721817254239</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.01953526362623821</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.2106332992874178</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-0.1764800434451671</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.345814311494867</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0.08319664993808815</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.1067741211512649</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0.1626052005880836</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.01102370504500045</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.1470955831934179</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.01594511287330602</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>-0.06220434912751557</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.1799624571137389</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.09247401670397259</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.09938044767452085</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>-0.1737944096717778</v>
       </c>
     </row>
     <row r="10">
@@ -1093,49 +2419,202 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002575163681913324</v>
+        <v>-0.3080340370679903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4035698158061264</v>
+        <v>0.1886309416477043</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1716483284698927</v>
+        <v>-0.17985840249897</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1626826044659723</v>
+        <v>-0.0350572586733179</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4394777368934784</v>
+        <v>0.1393105200562207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2248360355643848</v>
+        <v>0.09887908718909834</v>
       </c>
       <c r="H10" t="n">
-        <v>0.082249833054792</v>
+        <v>-0.02587547238954832</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2236987656107244</v>
+        <v>-0.1279039629221136</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.05438294306742272</v>
+        <v>-0.05749514337544707</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01859023135649186</v>
+        <v>-0.2142381474278501</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1107871261389601</v>
+        <v>-0.08496583372590656</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1513478972732991</v>
+        <v>-0.3362626499244982</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.460180697623917</v>
+        <v>0.07200880888810762</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.03499246289792607</v>
+        <v>-0.01449940262797669</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.4787735116965176</v>
+        <v>0.01032751332881804</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.09807737704965125</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1164628623380116</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.003679106944211689</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1380020662845615</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0459660876848422</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.1133444798198425</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1471647898365243</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.08183604409775316</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.09137394522384901</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.165367971824552</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.05708805584244582</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.1617595088467771</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.06809637145765168</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.05174437234784237</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.196970623904424</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.1034859199698152</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.08753487627212923</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0350264932954976</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.04596608768484219</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.1266090564416672</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.01093123367269412</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.005274839400396334</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.09980042132458183</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.09990931317685915</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.07346062884026036</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.05826167308863903</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.02880838950410433</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.10814267308665</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.003391543732765755</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.1469010385040518</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.08500543327395782</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0.1758401550832454</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.09084539323142886</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0.1746985774058938</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>-0.02223348697145437</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-0.02917550481481186</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1354326043982562</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-0.004070969206724878</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-0.1119501167877965</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.1052365135767822</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-0.297296905205403</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-0.06438047930358236</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.02345897789138873</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.1815825546784141</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>-0.1114044491427228</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.1056137933132731</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.001759712168761962</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-0.04500758719659655</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.118484079314655</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>-0.1368852238257931</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>-0.1120964474223326</v>
       </c>
     </row>
   </sheetData>
@@ -1204,28 +2683,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5709577934375438</v>
+        <v>-2.156334555625567</v>
       </c>
       <c r="C2" t="n">
-        <v>1.393642788015002</v>
+        <v>-2.347952006727331</v>
       </c>
       <c r="D2" t="n">
-        <v>2.307407187822257</v>
+        <v>-3.243100941288013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7230372148379944</v>
+        <v>1.628228686436922</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.828567571224094</v>
+        <v>3.512334382183663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4573753791664582</v>
+        <v>-1.98758800042374</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.499106464287385</v>
+        <v>1.063986129735828</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2288549564217516</v>
+        <v>3.116259724358095</v>
       </c>
     </row>
     <row r="3">
@@ -1233,28 +2712,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9693054081102606</v>
+        <v>-1.958061997250586</v>
       </c>
       <c r="C3" t="n">
-        <v>1.348561348528053</v>
+        <v>-2.560955970356331</v>
       </c>
       <c r="D3" t="n">
-        <v>2.108859960267853</v>
+        <v>-2.419229721570358</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3997965259687138</v>
+        <v>0.7064549535764516</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1526400535739548</v>
+        <v>0.7250062489904603</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7917099109335818</v>
+        <v>0.3328047684342314</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2386924184977029</v>
+        <v>0.6246662997950356</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6088755333061798</v>
+        <v>1.650972508730938</v>
       </c>
     </row>
     <row r="4">
@@ -1262,28 +2741,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.885660932924796</v>
+        <v>5.986598848597468</v>
       </c>
       <c r="C4" t="n">
-        <v>1.96961383043763</v>
+        <v>-1.96312823128304</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2887790894385</v>
+        <v>-2.38593225209088</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1346142330882356</v>
+        <v>2.898775759188454</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.313675750720829</v>
+        <v>0.4271228655483781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1740772819642027</v>
+        <v>0.1878024894347493</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6162311040531974</v>
+        <v>0.8530518474196286</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4921403872112286</v>
+        <v>0.9287577843055468</v>
       </c>
     </row>
     <row r="5">
@@ -1291,28 +2770,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.854529674451282</v>
+        <v>3.273504527559645</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2514727370303084</v>
+        <v>-3.846245630909504</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7675448787905494</v>
+        <v>-0.6238376163449442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3520380335929264</v>
+        <v>5.097538699781897</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4873529755380424</v>
+        <v>3.40330131962285</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2865274159137359</v>
+        <v>-2.129099527266418</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5372881723922416</v>
+        <v>0.9564663016877835</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8115624832250035</v>
+        <v>-3.048184509393713</v>
       </c>
     </row>
     <row r="6">
@@ -1320,28 +2799,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5336807913867649</v>
+        <v>-4.497101726712387</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.136688725065861</v>
+        <v>-2.246087232875881</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4328444332322232</v>
+        <v>-1.209755969566173</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.908838029170808</v>
+        <v>0.003813066732748708</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6210279183148588</v>
+        <v>-0.6130389538477867</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8810939561397334</v>
+        <v>0.1220960434920485</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02783567939232532</v>
+        <v>-2.133464449890837</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1378087308760611</v>
+        <v>-0.9845279886345755</v>
       </c>
     </row>
     <row r="7">
@@ -1349,28 +2828,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.788695737781962</v>
+        <v>-4.030967884992076</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07100880314725021</v>
+        <v>-3.24355209076451</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5819750881887906</v>
+        <v>-0.3500068200501354</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1802320257059225</v>
+        <v>-1.250887307032423</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1143291887192208</v>
+        <v>-0.2904105628241167</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.07038880278233381</v>
+        <v>2.405170880858439</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.015196709911831</v>
+        <v>-0.9337780017412234</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.000438544599176</v>
+        <v>-0.6935872506255178</v>
       </c>
     </row>
     <row r="8">
@@ -1378,28 +2857,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.907522723292487</v>
+        <v>-1.156859733657564</v>
       </c>
       <c r="C8" t="n">
-        <v>2.098314584094426</v>
+        <v>-2.484104436754912</v>
       </c>
       <c r="D8" t="n">
-        <v>1.442553595002394</v>
+        <v>-2.818886143824242</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4207133819339607</v>
+        <v>-0.02998926190296605</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2580354998815543</v>
+        <v>-1.258360758273066</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3519245350553148</v>
+        <v>1.891200528305778</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6193194525352492</v>
+        <v>-1.015869146147826</v>
       </c>
       <c r="I8" t="n">
-        <v>0.238517147493054</v>
+        <v>0.3920519890278135</v>
       </c>
     </row>
     <row r="9">
@@ -1407,28 +2886,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.075583264101012</v>
+        <v>-3.040983124142131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1945030743171141</v>
+        <v>-2.314856665190389</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007358951396545421</v>
+        <v>-1.462215101323802</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8085320634505642</v>
+        <v>0.3490885025060159</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.618266384841362</v>
+        <v>-0.1014706949356697</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09677818049191517</v>
+        <v>1.760135151708135</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3897647890298909</v>
+        <v>-0.3899263394227865</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1008530645140418</v>
+        <v>0.5377630385024128</v>
       </c>
     </row>
     <row r="10">
@@ -1436,28 +2915,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.454428362547113</v>
+        <v>-0.8738931671062747</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5788653226717787</v>
+        <v>-3.161519537495452</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.451395983637409</v>
+        <v>4.197911912349334</v>
       </c>
       <c r="E10" t="n">
-        <v>1.794998086398935</v>
+        <v>2.046404019492258</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05379328505080303</v>
+        <v>1.205544855636058</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4670847308217519</v>
+        <v>2.594661984321279</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.470861458949874</v>
+        <v>0.1141496770622351</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2275375810551221</v>
+        <v>0.6633641112303468</v>
       </c>
     </row>
     <row r="11">
@@ -1465,28 +2944,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6957632526167522</v>
+        <v>-0.485967994415687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08928905564389268</v>
+        <v>-0.01350231647091837</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2547651656815746</v>
+        <v>0.8443566167928186</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.161440101793728</v>
+        <v>-2.003463217779417</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1529830015988635</v>
+        <v>-1.439304852903881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03181131267933874</v>
+        <v>-0.2862094945075634</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3550777061506348</v>
+        <v>3.714970984422114</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2552793110519538</v>
+        <v>0.3520889455405313</v>
       </c>
     </row>
     <row r="12">
@@ -1494,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.514349075645999</v>
+        <v>4.029749339681138</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.769742787851279</v>
+        <v>-2.380399390159898</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.810973283944312</v>
+        <v>8.916805294418987</v>
       </c>
       <c r="E12" t="n">
-        <v>2.637620333869278</v>
+        <v>-0.3531223609002641</v>
       </c>
       <c r="F12" t="n">
-        <v>1.165235612166115</v>
+        <v>0.4844918032635323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007893144915710006</v>
+        <v>0.1952340613297689</v>
       </c>
       <c r="H12" t="n">
-        <v>1.360678423620262</v>
+        <v>-1.219982751149915</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6535767044106365</v>
+        <v>1.011926148972892</v>
       </c>
     </row>
     <row r="13">
@@ -1523,28 +3002,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.536526280730966</v>
+        <v>-0.5581627500995011</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.756932499406431</v>
+        <v>-1.881694178260757</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.214339815394302</v>
+        <v>1.150316574841775</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5094195787502303</v>
+        <v>-1.390681405956999</v>
       </c>
       <c r="F13" t="n">
-        <v>1.174674619588115</v>
+        <v>-1.266017926973768</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3457366784584422</v>
+        <v>-0.3176978340182147</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03708322392328144</v>
+        <v>2.6240423987818</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5738641955022192</v>
+        <v>-1.55060515381623</v>
       </c>
     </row>
     <row r="14">
@@ -1552,28 +3031,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.06310593578519</v>
+        <v>5.939560461179753</v>
       </c>
       <c r="C14" t="n">
-        <v>1.553693504310039</v>
+        <v>-2.802006328749112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4694036252939363</v>
+        <v>0.3176895941767349</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8394730863495971</v>
+        <v>-3.172639578422007</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4075759139947688</v>
+        <v>-0.8823759450042427</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3859515759653724</v>
+        <v>-2.680229411222057</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4050133382981038</v>
+        <v>-2.542795312942022</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6984044852106855</v>
+        <v>2.556891762788591</v>
       </c>
     </row>
     <row r="15">
@@ -1581,28 +3060,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.432340643435339</v>
+        <v>0.88129761590566</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.033862408889221</v>
+        <v>-1.450983861832352</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6588762433728309</v>
+        <v>1.009170730225243</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.906466389549261</v>
+        <v>-2.066005322815068</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0967514957189511</v>
+        <v>-0.8302890786076285</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7686704450112789</v>
+        <v>-1.899355963366471</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9694776877131328</v>
+        <v>3.927326062152237</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5322840869360653</v>
+        <v>-2.164751775389687</v>
       </c>
     </row>
     <row r="16">
@@ -1610,28 +3089,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.365152874640795</v>
+        <v>-3.841399983937412</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.279012929219763</v>
+        <v>-1.893069643191772</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.08071522019780389</v>
+        <v>0.4618902527878236</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2181553364917628</v>
+        <v>0.03004745586827717</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5355395112804585</v>
+        <v>-2.56899408088169</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2015026420414561</v>
+        <v>-0.3436211567642489</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.9912848612111378</v>
+        <v>-0.9760698421438596</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.785957779736446</v>
+        <v>0.1501530418366054</v>
       </c>
     </row>
     <row r="17">
@@ -1639,28 +3118,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6459494985809033</v>
+        <v>12.11615045142725</v>
       </c>
       <c r="C17" t="n">
-        <v>2.519732551156307</v>
+        <v>-0.6814858468289371</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9006854913408356</v>
+        <v>-3.445150139171037</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5464198179166398</v>
+        <v>-4.704263755482862</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6465799977064782</v>
+        <v>-0.8637148402705003</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.898719620911785</v>
+        <v>1.041577713681579</v>
       </c>
       <c r="H17" t="n">
-        <v>2.35580631807522</v>
+        <v>-1.615235202203691</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2359863596850399</v>
+        <v>-1.700242000223761</v>
       </c>
     </row>
     <row r="18">
@@ -1668,28 +3147,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.449957196012476</v>
+        <v>-0.778250016244854</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.930150462370299</v>
+        <v>1.550419663500766</v>
       </c>
       <c r="D18" t="n">
-        <v>0.81905364502024</v>
+        <v>0.7418798716702959</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8045896804548137</v>
+        <v>1.330592005766049</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3411605967208752</v>
+        <v>-1.218100824254061</v>
       </c>
       <c r="G18" t="n">
-        <v>1.424925832593097</v>
+        <v>-0.7268603344981316</v>
       </c>
       <c r="H18" t="n">
-        <v>1.096080693645848</v>
+        <v>0.2375388148275286</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7919807421252152</v>
+        <v>-1.438464689584012</v>
       </c>
     </row>
     <row r="19">
@@ -1697,28 +3176,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.648114555315179</v>
+        <v>0.3022409864580773</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3185718823886154</v>
+        <v>3.650879419016748</v>
       </c>
       <c r="D19" t="n">
-        <v>1.042488006619513</v>
+        <v>-0.09062672029686893</v>
       </c>
       <c r="E19" t="n">
-        <v>2.639536060524707</v>
+        <v>-0.2088276087268251</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7188345576963883</v>
+        <v>1.195103134641706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1668385511048936</v>
+        <v>0.2260200074410063</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6542794279908973</v>
+        <v>-0.589939082584395</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8612901961049942</v>
+        <v>2.350611712582166</v>
       </c>
     </row>
     <row r="20">
@@ -1726,28 +3205,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.1558919678896</v>
+        <v>3.838471851613217</v>
       </c>
       <c r="C20" t="n">
-        <v>2.960753523020962</v>
+        <v>5.508206509326745</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.549485289822583</v>
+        <v>-0.5883420895463998</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.02165460360063749</v>
+        <v>4.143886814635461</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1619760291663887</v>
+        <v>-0.5793540558502115</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04032894129802856</v>
+        <v>-0.4476728029321236</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3263016620921311</v>
+        <v>-1.452060154637923</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.012837820485301</v>
+        <v>-1.234477483663185</v>
       </c>
     </row>
     <row r="21">
@@ -1755,28 +3234,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8939377484633131</v>
+        <v>-0.2988396406709139</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.075448732587849</v>
+        <v>2.821859857824443</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1476300177421983</v>
+        <v>0.6132471520533026</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.900661611099609</v>
+        <v>0.6709918645292474</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.8137815419643024</v>
+        <v>-0.9870044440017549</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.347620662262522</v>
+        <v>0.5218964568873015</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1698027690182617</v>
+        <v>0.3935797162008914</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1361821222558245</v>
+        <v>-1.639165341800114</v>
       </c>
     </row>
     <row r="22">
@@ -1784,28 +3263,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.332529127159932</v>
+        <v>-2.203522107801718</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1529455894741026</v>
+        <v>1.917637740354747</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.362601869305692</v>
+        <v>-0.5001917881534577</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.489949410439971</v>
+        <v>1.473194802981803</v>
       </c>
       <c r="F22" t="n">
-        <v>1.265836164220299</v>
+        <v>-4.140091454132124</v>
       </c>
       <c r="G22" t="n">
-        <v>3.514694715316679</v>
+        <v>0.2218452226533781</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1563272115028582</v>
+        <v>-0.05718907256158411</v>
       </c>
       <c r="I22" t="n">
-        <v>1.093848734135409</v>
+        <v>-0.1558101145148875</v>
       </c>
     </row>
     <row r="23">
@@ -1813,28 +3292,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.683097114699778</v>
+        <v>-5.187105060556488</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.026391348419286</v>
+        <v>0.2703727588670299</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08788552331629171</v>
+        <v>-0.7220150107483043</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.687784154265927</v>
+        <v>0.5185473614499081</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.370844896228947</v>
+        <v>-1.200471369473156</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2948159634393925</v>
+        <v>-0.6594250043840033</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.8577887513167609</v>
+        <v>-3.027366025596427</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5352705640873204</v>
+        <v>-1.998094285402191</v>
       </c>
     </row>
     <row r="24">
@@ -1842,28 +3321,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.536844265419088</v>
+        <v>0.001706603435135845</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.254800714396961</v>
+        <v>3.099435119991237</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.9250550185713945</v>
+        <v>2.540845380541523</v>
       </c>
       <c r="E24" t="n">
-        <v>2.010308662013348</v>
+        <v>1.753856518395147</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1247303696486535</v>
+        <v>0.731332056366462</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.7212502141923283</v>
+        <v>0.3580269703367848</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1510573733237479</v>
+        <v>-1.456462557751966</v>
       </c>
       <c r="I24" t="n">
-        <v>2.820845428619071</v>
+        <v>0.8083760800567177</v>
       </c>
     </row>
     <row r="25">
@@ -1871,28 +3350,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.950029309819472</v>
+        <v>-0.06683391612404033</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0969378408209082</v>
+        <v>3.406352720683933</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3627898200681225</v>
+        <v>-0.7642669779201309</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1588752085215795</v>
+        <v>-2.215357769714626</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.9782776956995345</v>
+        <v>2.228332786947069</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.4653769346155572</v>
+        <v>5.631005662138988</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.183043921424399</v>
+        <v>2.102409953903825</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1720331160357995</v>
+        <v>0.5218834078541399</v>
       </c>
     </row>
     <row r="26">
@@ -1900,28 +3379,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.732845376442652</v>
+        <v>-2.281957654476829</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.114296660224143</v>
+        <v>2.766796008338561</v>
       </c>
       <c r="D26" t="n">
-        <v>2.744826007983692</v>
+        <v>-0.2833289406952585</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.7016862253883611</v>
+        <v>-0.5522341900458213</v>
       </c>
       <c r="F26" t="n">
-        <v>4.576928891402019</v>
+        <v>-3.409929796974018</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.7539015544888624</v>
+        <v>-3.054315052249658</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.8584053039732548</v>
+        <v>1.516743088520488</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0636674158319903</v>
+        <v>2.877019279223414</v>
       </c>
     </row>
     <row r="27">
@@ -1929,28 +3408,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.01310255161761</v>
+        <v>-4.286721717126271</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.7112666355742</v>
+        <v>2.420348154491413</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7702801717282743</v>
+        <v>0.3367441458610929</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3024056727435064</v>
+        <v>-4.444516673153759</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.167700332676587</v>
+        <v>3.597666423751079</v>
       </c>
       <c r="G27" t="n">
-        <v>0.575180752842094</v>
+        <v>-1.87507223261504</v>
       </c>
       <c r="H27" t="n">
-        <v>1.53810675543324</v>
+        <v>-0.7903173024232305</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.7849871325371197</v>
+        <v>-1.662558857045942</v>
       </c>
     </row>
     <row r="28">
@@ -1958,28 +3437,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.126093793865423</v>
+        <v>4.232375053674044</v>
       </c>
       <c r="C28" t="n">
-        <v>2.805331071653435</v>
+        <v>4.344422555213707</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.850666653048362</v>
+        <v>-0.3006030633216427</v>
       </c>
       <c r="E28" t="n">
-        <v>0.695068087425038</v>
+        <v>2.272876676015827</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1586048819042795</v>
+        <v>-0.1510102533728507</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2044266239167033</v>
+        <v>0.7506208653056409</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.390187317122922</v>
+        <v>0.8354749139540635</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5065043956340645</v>
+        <v>0.7216290238040249</v>
       </c>
     </row>
     <row r="29">
@@ -1987,28 +3466,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.479210245602834</v>
+        <v>-2.898692708591079</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8748061122286267</v>
+        <v>3.514812860241755</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218828419505239</v>
+        <v>0.07663177019271317</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7250713994918236</v>
+        <v>-2.532308735423434</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.32316223634631</v>
+        <v>4.289704015629269</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.885428701158275</v>
+        <v>-1.832951992081435</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.108959071860211</v>
+        <v>-0.7639509472657733</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7958546272672853</v>
+        <v>-0.3692791087204162</v>
       </c>
     </row>
   </sheetData>

--- a/PCA_OUTPUT.xlsx
+++ b/PCA_OUTPUT.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.34982500769136</v>
+        <v>15.06102535958849</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.954007648841377</v>
+        <v>7.746219444382065</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.773127817716277</v>
+        <v>5.699463811548743</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.46100834929694</v>
+        <v>5.513847388294328</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.153925092148899</v>
+        <v>4.065158191196015</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.3404440797601</v>
+        <v>3.471946831161425</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.96281661981627</v>
+        <v>2.899853541001016</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.631850521332479</v>
+        <v>2.819487839623623</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2325731061771418</v>
+        <v>0.2247914232774403</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1205152674066875</v>
+        <v>0.115615215587792</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08747163360176176</v>
+        <v>0.08506662405296633</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08274255074692333</v>
+        <v>0.08229622967603477</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.062938258971953</v>
+        <v>0.06067400285367187</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05061278908727423</v>
+        <v>0.05182010195763322</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04489116090630711</v>
+        <v>0.04328139613434353</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0398765230504921</v>
+        <v>0.04208190805408394</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO10"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,25 +953,30 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
+          <t>年齢不明</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
           <t>スタスタ歩いている</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>のんびり歩いている</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>日本人</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>外国人</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>国籍不明</t>
         </is>
@@ -984,202 +989,205 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08534850554274383</v>
+        <v>-0.34083209902519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04856792439846429</v>
+        <v>0.2069039927889827</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04392493038757288</v>
+        <v>-0.1843358466154616</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09589664879612354</v>
+        <v>-0.3576230145602076</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05642069579340824</v>
+        <v>-0.2433303012051956</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1546446141422828</v>
+        <v>-0.5916136438145428</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01971532714928531</v>
+        <v>0.06980297678894347</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07231404185527537</v>
+        <v>0.2974460624730793</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.05612760073394289</v>
+        <v>-0.2340520883186792</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02913529393283943</v>
+        <v>0.1204725779975739</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01925028171857335</v>
+        <v>-0.1076745967052308</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1229409949493722</v>
+        <v>-0.4942104553430124</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003839316694061614</v>
+        <v>0.002551876156637373</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.07230337757328294</v>
+        <v>-0.3002032201873777</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.004963077384637239</v>
+        <v>-0.02950699432880969</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1930635970861115</v>
+        <v>0.7564815536374989</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1700097884247341</v>
+        <v>0.6451209069559934</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2088253248440161</v>
+        <v>0.8192189750398446</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1777372237945484</v>
+        <v>0.7020759489512204</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1661141490216749</v>
+        <v>0.6342101959117563</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1932628286596227</v>
+        <v>0.7286902899253364</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04957045561244421</v>
+        <v>0.2173264434524294</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1600956324229448</v>
+        <v>0.6344162840515245</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06669581150652611</v>
+        <v>0.2659038785493981</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1559324571516148</v>
+        <v>0.61611407756057</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1112601120697068</v>
+        <v>0.44808599458583</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.134093419071911</v>
+        <v>0.5374647309411665</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.07162448281958388</v>
+        <v>0.3053819222251999</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1734337704782038</v>
+        <v>0.6837932073713583</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.09133110234690435</v>
+        <v>0.3707390705996466</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2074059110613463</v>
+        <v>0.8167976498055466</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1622232805689139</v>
+        <v>0.6117456576321945</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1932777286612045</v>
+        <v>0.7404601141944194</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1661141490216748</v>
+        <v>0.6342101959117563</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1546950724717852</v>
+        <v>0.5926032404765891</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2181350463575707</v>
+        <v>0.7932448625207705</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1490500281956529</v>
+        <v>0.5922313441810204</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1930237685143598</v>
+        <v>0.7340850314653908</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1948031209667911</v>
+        <v>0.7459677590602032</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1736066912707054</v>
+        <v>0.6365786896887465</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1736224455314836</v>
+        <v>0.6169004694812334</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1880328822112993</v>
+        <v>0.7396577223931711</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1022573517240132</v>
+        <v>0.4197883872179463</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1559216021773391</v>
+        <v>0.6189628701979546</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1240390400362364</v>
+        <v>0.4955013976145682</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.07876498232927276</v>
+        <v>0.3290084523782362</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1302200668059412</v>
+        <v>0.5215351311621083</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.04165061590445898</v>
+        <v>0.1581277856053866</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2000131530005199</v>
+        <v>0.7877496478085316</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.04419207240642526</v>
+        <v>0.2133738194083033</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.09023243519732596</v>
+        <v>-0.3407997222986593</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.008747811441326142</v>
+        <v>0.02350831684326521</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.09003406465540237</v>
+        <v>0.3433398334056124</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.03245389743654125</v>
+        <v>-0.124374421702976</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.09841634764230117</v>
+        <v>0.3763322468516748</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.03507559942019214</v>
+        <v>0.1656721275731461</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.05584125464814082</v>
+        <v>0.2121025479837097</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.009543995187549094</v>
+        <v>-0.04635604625721634</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.06377021666217647</v>
+        <v>-0.2553613044085514</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.06277367813532703</v>
+        <v>0.2515170687716584</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.008006682481024761</v>
+        <v>0.01280464533653702</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.05587121666548218</v>
+        <v>0.1229497120437269</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.1012821519698251</v>
+        <v>-0.2059715139321098</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.1125720161436026</v>
+        <v>0.3758887614863278</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.05643759337909163</v>
+        <v>0.4244298613834692</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.001505158909292955</v>
+        <v>-0.2134707272605734</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.03061484723785812</v>
       </c>
     </row>
     <row r="4">
@@ -1189,202 +1197,205 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1218930844675857</v>
+        <v>0.3414777041167975</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0004423804645767535</v>
+        <v>0.01557693267179787</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.219491571200608</v>
+        <v>-0.6156719925607783</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2412117394324266</v>
+        <v>-0.6704142118660885</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1325457162960159</v>
+        <v>0.3451907429901473</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1355826047472969</v>
+        <v>-0.3747680559333205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1421432703639517</v>
+        <v>0.3956587512603461</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0606392850201262</v>
+        <v>-0.1623867258929536</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2975880999432441</v>
+        <v>0.8284837171537128</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.06817205530976558</v>
+        <v>-0.1859059803419146</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2394840744657771</v>
+        <v>0.637953919220586</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.03273814237767438</v>
+        <v>-0.09408741648001037</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1711901381605441</v>
+        <v>-0.4832363027903291</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2993005918869401</v>
+        <v>0.8218755780477439</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06848732595592279</v>
+        <v>0.1909033733298683</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1044876209507607</v>
+        <v>-0.2974362190311187</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05059063731824854</v>
+        <v>0.1337627206281035</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.001987639064855622</v>
+        <v>-0.006680728169374842</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04486384464153876</v>
+        <v>0.1292038706488118</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.06184780584004525</v>
+        <v>-0.185428907103302</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05307464906641029</v>
+        <v>0.1495531446147823</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1887064272451395</v>
+        <v>0.5253601960204561</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08602169852171565</v>
+        <v>0.2448840526810036</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2467935098834986</v>
+        <v>0.6982361444778983</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03832169812021611</v>
+        <v>0.1118412099138963</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1565809911874882</v>
+        <v>0.4485823383602074</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06460491734172616</v>
+        <v>0.1865301190107833</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2217286509295379</v>
+        <v>0.612843166828592</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1284711723904481</v>
+        <v>0.3562993832447078</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1998871806111098</v>
+        <v>0.5546177205240104</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.05336307733971057</v>
+        <v>-0.1424494511226159</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.008008699060245298</v>
+        <v>0.01714173513164454</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.07171465866191973</v>
+        <v>-0.2129075454977527</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.06184780584004526</v>
+        <v>-0.1854289071033021</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.01679136832019024</v>
+        <v>-0.05477257682276849</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.04804738372649781</v>
+        <v>-0.1484312321503242</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.05710224039547798</v>
+        <v>-0.1511208016748844</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.1534529404293044</v>
+        <v>-0.4408351048466645</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.09575156784279441</v>
+        <v>-0.2792917415266734</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.07684401542027458</v>
+        <v>0.194766696750274</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.01328353700139644</v>
+        <v>0.02156161477457251</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.117257369183882</v>
+        <v>-0.3039890636509929</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.01095842433575085</v>
+        <v>-0.01174866911001741</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.03668335208671224</v>
+        <v>-0.0987227743431181</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.09403241945988103</v>
+        <v>0.261283876252275</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.08136260730444142</v>
+        <v>-0.2078304785191238</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.06100072829229308</v>
+        <v>-0.1570694020661038</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.08861918870223738</v>
+        <v>-0.2436516327212732</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.002367281013327344</v>
+        <v>-0.0002393818500577376</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.02052356740133417</v>
+        <v>-0.01300267954365515</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.1117227314000843</v>
+        <v>-0.3101279740863107</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.1324501563120395</v>
+        <v>-0.3789918083151502</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.1396166007628733</v>
+        <v>0.3909091939864783</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.05467077677797605</v>
+        <v>0.1569943692768014</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.03170829348132699</v>
+        <v>0.08596153607007793</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0421674625753115</v>
+        <v>0.1276655964584558</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.1246521630387448</v>
+        <v>-0.3537812015554415</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.04631933700277763</v>
+        <v>0.1269423885674498</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.09612856599456036</v>
+        <v>-0.2754253872903605</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.01540039624156659</v>
+        <v>-0.03827663294015626</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.1910142091495068</v>
+        <v>0.5265351999365012</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.07299194110790384</v>
+        <v>0.0476351816290809</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.03452006358375884</v>
+        <v>0.2125808957852825</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.03979347734850584</v>
+        <v>-0.1061023224231405</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.06212695142744324</v>
+        <v>-0.1197042593668834</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2275907682590456</v>
+        <v>0.180833742037055</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.6439645886949968</v>
       </c>
     </row>
     <row r="5">
@@ -1394,202 +1405,205 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04102646234353305</v>
+        <v>-0.2366568941696639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2884674716071809</v>
+        <v>-0.02458384343461323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1630888377067768</v>
+        <v>-0.09404174741297948</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03741242174857975</v>
+        <v>0.07013472038886918</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1416905821158085</v>
+        <v>0.1906642082258707</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0882782641172789</v>
+        <v>-0.1023736077447947</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02703159644304834</v>
+        <v>0.2833553907997028</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03289728182672972</v>
+        <v>-0.03161040926851227</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06466975267355989</v>
+        <v>-0.130448912338221</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009618226862980601</v>
+        <v>0.05790191480620455</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1020696301936233</v>
+        <v>-0.4079187942285319</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2006011337701197</v>
+        <v>-0.2995012173757668</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2256092828196495</v>
+        <v>-0.3565560845046779</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03382941114522319</v>
+        <v>-0.0125722833559776</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1783184039713422</v>
+        <v>-0.3459160008678335</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0483709687169847</v>
+        <v>0.1561954673938385</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09666876664859975</v>
+        <v>-0.01765683158695171</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.07651242078889291</v>
+        <v>0.2475419711447153</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06060870051347497</v>
+        <v>-0.03237221036051292</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.07650258821281869</v>
+        <v>-0.3959917328990917</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1054609067169659</v>
+        <v>0.08774496241612022</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.08625349747496772</v>
+        <v>0.5276845464747454</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.05743124937374629</v>
+        <v>-0.03639919721159279</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.01311851629359884</v>
+        <v>0.01557232227036166</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.09870896722426728</v>
+        <v>0.2308815690380019</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.09696422664245372</v>
+        <v>0.04546404671752916</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1072309372154158</v>
+        <v>0.3555094745777976</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.007889065876210227</v>
+        <v>0.4576002155020169</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.03554414948779641</v>
+        <v>0.1455816294928215</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1369603210091818</v>
+        <v>-0.1240641854793385</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.06368056551360789</v>
+        <v>-0.02855209522166743</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.2007715327680044</v>
+        <v>-0.1655321855885022</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.1235374544932608</v>
+        <v>-0.2054046771462455</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.07650258821281869</v>
+        <v>-0.3959917328990917</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.1169532329957666</v>
+        <v>-0.266951179721886</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.05568374327412828</v>
+        <v>0.02735034809090825</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.005645521083141305</v>
+        <v>0.1298760056632399</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.01042516287154563</v>
+        <v>-0.1257574811023658</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.02097051442421636</v>
+        <v>-0.2543198488736833</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0283957930366653</v>
+        <v>-0.3088385676193334</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.03567419116013269</v>
+        <v>0.1100944175027923</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.1049979416292971</v>
+        <v>0.074552078491516</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.2703968225854526</v>
+        <v>0.03302210275553513</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.2197915772369083</v>
+        <v>0.4526954545188129</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.056473964463121</v>
+        <v>0.208203148441224</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.1507731922362562</v>
+        <v>-0.01014899734245014</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1922693577803324</v>
+        <v>0.2309567645305307</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.3395430325911005</v>
+        <v>-0.2739446161410473</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1400631656405973</v>
+        <v>0.0966820175152914</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.2419430743147312</v>
+        <v>0.2988211960094591</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.03291336376592015</v>
+        <v>0.5421712931463777</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1456598667568992</v>
+        <v>0.3090719169079371</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.07017780701274641</v>
+        <v>-0.6069047842491957</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.04887507639896909</v>
+        <v>-0.273574539672921</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.08564071349172059</v>
+        <v>-0.4083609726718002</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.02715281400193501</v>
+        <v>0.557922646629587</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0983885991672698</v>
+        <v>0.4928314218730111</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01489058035196136</v>
+        <v>-0.4937066943780963</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.1310306838671951</v>
+        <v>0.200049017345273</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.05813387444199254</v>
+        <v>-0.3228199285751684</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.17183402628862</v>
+        <v>-0.4725254766904993</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.1504715075806927</v>
+        <v>0.3168965474042808</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.1545569789497271</v>
+        <v>0.2854371026978731</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01983604817489852</v>
+        <v>-0.6623191046616731</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.003058842340918016</v>
+        <v>-0.2988426318110916</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.02305252419420429</v>
+        <v>-0.3138717225138452</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.2426464610519378</v>
       </c>
     </row>
     <row r="6">
@@ -1599,202 +1613,205 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.134622854990871</v>
+        <v>-0.2129235956964828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09674679244337807</v>
+        <v>0.7141237613463495</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03516848920960528</v>
+        <v>0.3874242639405983</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02291881055476548</v>
+        <v>0.1403378963325227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08705052100360743</v>
+        <v>-0.2844472757556677</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03687433308785612</v>
+        <v>0.1886549138046413</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1416200109635066</v>
+        <v>0.04931007513375589</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03904034685670152</v>
+        <v>0.07581552180897401</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.007181499645219573</v>
+        <v>0.1042452851945803</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01981826823878729</v>
+        <v>0.04058205619514135</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.111975342668257</v>
+        <v>0.09721462366124486</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.04145097793817515</v>
+        <v>0.3765036436356128</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.06639784441690991</v>
+        <v>0.4457479772240284</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04206829225859495</v>
+        <v>0.07069839105786563</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06995993031525084</v>
+        <v>0.3284775448296603</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06681974889843129</v>
+        <v>-0.05594600774479361</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07606108942235318</v>
+        <v>0.2466340650625756</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1012496808202874</v>
+        <v>-0.09862716738468436</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01522585835732755</v>
+        <v>0.1409835776886718</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.2036939532925003</v>
+        <v>-0.35703802924034</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.05376928444539468</v>
+        <v>-0.2131702055904733</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2038569493257168</v>
+        <v>-0.0001489280404663975</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.06279943001653987</v>
+        <v>-0.1695261100193869</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.003115046467983438</v>
+        <v>-0.04300767438716124</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07041744730301501</v>
+        <v>-0.1793864837184133</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04710829548355749</v>
+        <v>0.2485442454402338</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1004794007624205</v>
+        <v>-0.1268692365560519</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1873297920062424</v>
+        <v>0.1513076494094948</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02677890809910881</v>
+        <v>-0.02603202677755687</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.01822124168234742</v>
+        <v>0.3022378524498509</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.00385307832047022</v>
+        <v>0.1606151131218921</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.04794254812506334</v>
+        <v>0.4533076378573393</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1322999554241729</v>
+        <v>-0.4029138395771667</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.2036939532925003</v>
+        <v>-0.3570380292403401</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.1688239566703189</v>
+        <v>-0.4126915799027422</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.04785576094817101</v>
+        <v>-0.131807761416825</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.05195198659314337</v>
+        <v>0.06037961236340296</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.0328466915165759</v>
+        <v>-0.07412210671471696</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.1083182061664918</v>
+        <v>-0.1544087618997721</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.09470958585555728</v>
+        <v>-0.04190460893872774</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.1029939694344546</v>
+        <v>-0.05663362136208908</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.05022723219206211</v>
+        <v>0.2858080122412487</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.09687421666857263</v>
+        <v>0.6873191386513691</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.1172711876361796</v>
+        <v>-0.3714704547643347</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.05617773611410559</v>
+        <v>-0.04569174113470571</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1326727013380403</v>
+        <v>-0.3749136014011006</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1840420385906432</v>
+        <v>0.5807226922794599</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02183459138881019</v>
+        <v>0.7682279049456557</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.1112934589279333</v>
+        <v>0.398011180786619</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.177146636926665</v>
+        <v>0.631611439654397</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.2284025512520184</v>
+        <v>0.1447942701253405</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.1204584854934536</v>
+        <v>-0.2577630208335983</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.2523866786265975</v>
+        <v>-0.07185165011447245</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.1722950845139559</v>
+        <v>-0.2516009885071346</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.1399822914855523</v>
+        <v>0.05686593120786753</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.2427220747757506</v>
+        <v>0.1626725265631638</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.2226751363357619</v>
+        <v>-0.06098440971079814</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.218542955019689</v>
+        <v>-0.1701717632638749</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.05459244847101999</v>
+        <v>-0.2612697705885032</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.197156810920987</v>
+        <v>-0.2948143402308059</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.1296268300169511</v>
+        <v>0.2548427786110823</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.04922230757591437</v>
+        <v>0.1304961942222111</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.2256983394237042</v>
+        <v>-0.2882487632960906</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.1228161442156371</v>
+        <v>0.1389836236529868</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0.1587612140578655</v>
+        <v>-0.06951165138057189</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.1023551997197098</v>
+        <v>-0.1284392372452881</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.1461731699793128</v>
       </c>
     </row>
     <row r="7">
@@ -1804,202 +1821,205 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05190982525797102</v>
+        <v>0.09927030734811669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1634365758900605</v>
+        <v>0.343223832511997</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01081504670734555</v>
+        <v>-0.006835009486182785</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1385145141193875</v>
+        <v>-0.2590727362598703</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1953108021548486</v>
+        <v>0.3555487744349023</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04512505274359155</v>
+        <v>0.1111113951618732</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1791710528922426</v>
+        <v>-0.3691536300246896</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1874305936814526</v>
+        <v>-0.3692331166203659</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01703527910046822</v>
+        <v>0.02107577959314089</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1608799893335311</v>
+        <v>0.3309563372053639</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.1693184295482864</v>
+        <v>-0.343670363443233</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02348366341543908</v>
+        <v>0.05437246581371038</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.07079404331972954</v>
+        <v>-0.1366023986490094</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.002628668466114162</v>
+        <v>-0.02147653281859454</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1015638333487044</v>
+        <v>0.2145137394646936</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03490564709440668</v>
+        <v>0.07187466189966341</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05935997841913373</v>
+        <v>0.1132622031636599</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07322196725706469</v>
+        <v>0.139554331044385</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1591135447143444</v>
+        <v>0.3201467439013188</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.059361329829904</v>
+        <v>-0.1450689296240176</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.007888888378658664</v>
+        <v>-0.01468871891607182</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.07667393546606073</v>
+        <v>-0.1463221603309161</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.0798099403694231</v>
+        <v>-0.1681527960306718</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1146031461729169</v>
+        <v>0.224504587963944</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1087947575807327</v>
+        <v>0.2112813016600615</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0952647309275511</v>
+        <v>0.1976560759657809</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.003646721049086071</v>
+        <v>0.002930598852969821</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.06046635574561067</v>
+        <v>0.1297652140659293</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.1447088323673534</v>
+        <v>-0.2767444521406397</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.1789456299710656</v>
+        <v>-0.3500967936536941</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.02597700859882043</v>
+        <v>-0.04271471265880392</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.009236128635136127</v>
+        <v>0.01925447503929545</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.04154295208318062</v>
+        <v>-0.1044244806067566</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.05936132982990398</v>
+        <v>-0.1450689296240175</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.04074993990000586</v>
+        <v>-0.1016433721297892</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.06955345566943279</v>
+        <v>-0.1567171920934033</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1006697530769208</v>
+        <v>0.2101587986794832</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.03091883230932979</v>
+        <v>0.05903411069981242</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.02974519263600126</v>
+        <v>-0.07297658103297826</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.1783219354035893</v>
+        <v>-0.3677001107165491</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.03744199750751934</v>
+        <v>0.05352254433059517</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0808037829004557</v>
+        <v>0.1753719278713972</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0147498004532995</v>
+        <v>0.05099780708897099</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.01198914379641453</v>
+        <v>-0.02447733459505377</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.2155115407301698</v>
+        <v>-0.4136296729233803</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0.07378377404593832</v>
+        <v>-0.1412290337168394</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.07139508291620655</v>
+        <v>0.1633653416491828</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.04657661489607794</v>
+        <v>0.1115814190000967</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02110587130040374</v>
+        <v>0.05129642037580227</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1013836559352787</v>
+        <v>0.2033740909237273</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0.2474917290901135</v>
+        <v>-0.4987214693507524</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.2596712937848452</v>
+        <v>0.5174713616771757</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1658578150541003</v>
+        <v>0.3358075575892041</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1801608947875313</v>
+        <v>0.3643581400433631</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.09447284141431521</v>
+        <v>0.1927997519355555</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.05068214136806192</v>
+        <v>0.113052968749749</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.2136810138074843</v>
+        <v>0.4370314099504821</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.198296769722956</v>
+        <v>0.391204674603831</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1254749379108215</v>
+        <v>0.247374381327546</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.2832940609707638</v>
+        <v>0.5748929631255548</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.08802941484091226</v>
+        <v>-0.1783337468809152</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.1854103105546387</v>
+        <v>0.04224544531596079</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.02527364191360328</v>
+        <v>0.3736116949081772</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.01746096025848581</v>
+        <v>-0.04973556625818338</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.2578773519390787</v>
+        <v>-0.04339219302191161</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.07790482497712004</v>
+        <v>0.5322976284764065</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.1580562640626125</v>
       </c>
     </row>
     <row r="8">
@@ -2009,202 +2029,205 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0968341817727503</v>
+        <v>-0.02203219517473671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05156832138853246</v>
+        <v>0.07071274454112145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05565991682029398</v>
+        <v>0.04666401743354283</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1439902590956583</v>
+        <v>-0.1254188285997013</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03328756177911717</v>
+        <v>-0.1630213038400752</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04732944682164499</v>
+        <v>0.01902930287074779</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01846211783360141</v>
+        <v>-0.08593229864397538</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2506898634567168</v>
+        <v>0.5233110732641341</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.05291220332085943</v>
+        <v>-0.1662927835098728</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1791945834688562</v>
+        <v>0.3083721575775107</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.112615924395284</v>
+        <v>-0.2433314136997579</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08497723609261652</v>
+        <v>0.1211168245999688</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04918162713345998</v>
+        <v>0.07715312816295371</v>
       </c>
       <c r="O8" t="n">
-        <v>0.000913842990874312</v>
+        <v>-0.1164622801259615</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.06784985948541483</v>
+        <v>-0.1509670064088811</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.07703365116445197</v>
+        <v>-0.162167297643701</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0272450582955193</v>
+        <v>-0.2256312738538795</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.04828574233852441</v>
+        <v>-0.1622475907765492</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0775835665378944</v>
+        <v>-0.1647900448519026</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0692752191113899</v>
+        <v>-0.06980859468190098</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.01049296480082573</v>
+        <v>0.138926602907769</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.08152374536451847</v>
+        <v>-0.160752930416024</v>
       </c>
       <c r="X8" t="n">
-        <v>0.132914612463467</v>
+        <v>0.3075103766321898</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.03614837071016679</v>
+        <v>-0.01888368397373627</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01488204565619792</v>
+        <v>-0.0101263778198976</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.178144385087162</v>
+        <v>0.2906522690791781</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.007023767994232832</v>
+        <v>0.04889128801040672</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1267512724411807</v>
+        <v>0.2254957453226127</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1189626565464823</v>
+        <v>0.2397638425529092</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.005108761166125522</v>
+        <v>0.01314439678610387</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.04510979920279547</v>
+        <v>-0.03082813088001957</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.1060189351471662</v>
+        <v>-0.2877639640468906</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.02744227527879677</v>
+        <v>-0.02394875063386059</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.06927521911138992</v>
+        <v>-0.06980859468190098</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.06110865492285746</v>
+        <v>0.1339956061274251</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.02879918392580256</v>
+        <v>-0.2118574178540638</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.05391457733622023</v>
+        <v>0.09925136876575893</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.1380689204945416</v>
+        <v>-0.24891612105593</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.04648790366292368</v>
+        <v>-0.07406615970843397</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.06031915170378493</v>
+        <v>-0.0008188975878063149</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.05687795946846996</v>
+        <v>-0.1375579569645605</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.02350287193850991</v>
+        <v>0.1265723436316926</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.01918607321889127</v>
+        <v>0.1144073158552583</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.08440456001721021</v>
+        <v>-0.1481488029083416</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.1544669928606152</v>
+        <v>-0.1550221509354713</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.1673492244838083</v>
+        <v>0.4736418552967963</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.037301839661507</v>
+        <v>0.03247858663027491</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.07950977866148749</v>
+        <v>0.07897998571386459</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.05803776274984012</v>
+        <v>-0.1152691470584589</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.1045438813313074</v>
+        <v>0.3065198486907432</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.01092585898010441</v>
+        <v>-0.02219315507782641</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.2137261470656301</v>
+        <v>-0.4810769330504163</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.05144971532535837</v>
+        <v>0.1540820402035142</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.1871157474895671</v>
+        <v>0.4201611563048944</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.07712970829089645</v>
+        <v>-0.124296579145388</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.127633439726049</v>
+        <v>-0.2037451907672885</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.1497956825590035</v>
+        <v>-0.3891331752486334</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.2248766934253233</v>
+        <v>-0.2404203414049805</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.05175221104137161</v>
+        <v>-0.1816405672055105</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.2400275743458478</v>
+        <v>0.4775612252561702</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.195170012662278</v>
+        <v>-0.2878855188321998</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.3073774163584442</v>
+        <v>0.4095595925983693</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.2322899295739239</v>
+        <v>0.4742460996062347</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.3211992254714511</v>
+        <v>-0.2996064734798142</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.244076050215832</v>
+        <v>0.4394780639885884</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0.05804377240387576</v>
+        <v>-0.2237891546021366</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>-0.01247244643429981</v>
       </c>
     </row>
     <row r="9">
@@ -2214,202 +2237,205 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.08187563990341568</v>
+        <v>-0.2449824175990171</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1059503246794903</v>
+        <v>-0.159164118162748</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05174730745981075</v>
+        <v>0.1114085206812827</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08333856631049343</v>
+        <v>0.05727357068753113</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.07277277292614885</v>
+        <v>-0.01175977998859477</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08857700283255247</v>
+        <v>0.08830652125862878</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02037821739677104</v>
+        <v>0.007984681673174862</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004543186896722706</v>
+        <v>0.001081762899891182</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.05810407449397628</v>
+        <v>-0.07472274319625595</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.100328080660402</v>
+        <v>-0.1647671523845982</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06517334083479071</v>
+        <v>0.1163583614611864</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05948588829515816</v>
+        <v>0.0729719145607705</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.08778690077810472</v>
+        <v>-0.1199399552640812</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.1262303437908564</v>
+        <v>-0.1684279462770295</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.08288298531454888</v>
+        <v>-0.1008992769261421</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.09124800579852965</v>
+        <v>-0.1568335671439394</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1048831499947347</v>
+        <v>-0.07221446247662321</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.1337057710382741</v>
+        <v>-0.1889379153344679</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.1685620917422168</v>
+        <v>-0.2439171806184468</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1981884594575974</v>
+        <v>-0.3517315003953856</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.1352476279085698</v>
+        <v>-0.2368882181585429</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02535846622952279</v>
+        <v>0.05053157628419635</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.02151595973190143</v>
+        <v>-0.06544019979209964</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.08911655112985349</v>
+        <v>-0.2150992215292521</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.08073820135291045</v>
+        <v>0.1246258243102403</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06199538553972844</v>
+        <v>0.1102485642648054</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.219517477527377</v>
+        <v>0.3133603446110129</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.07503394013946293</v>
+        <v>0.09575967694609178</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1066762383829567</v>
+        <v>0.1721191967216005</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.05005067887903916</v>
+        <v>0.117295868154387</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.07631548817721839</v>
+        <v>-0.1394938621416589</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.07941994036839628</v>
+        <v>-0.1100907171850749</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.1368120960949892</v>
+        <v>-0.2524052944867304</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.1981884594575975</v>
+        <v>-0.3517315003953856</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.1068430434123738</v>
+        <v>-0.1609111724011402</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.09236025225756928</v>
+        <v>0.1870343545107475</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.2582147369138253</v>
+        <v>0.4179533722734891</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.01075493797995853</v>
+        <v>-0.02790876356731433</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.1516336270940284</v>
+        <v>-0.2710863573744371</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.1008319055776521</v>
+        <v>0.220242336736918</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.1613266943858216</v>
+        <v>0.3328625722706765</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0.004257071341855145</v>
+        <v>-0.06104897797441276</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.1527256815035914</v>
+        <v>-0.289622296519647</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.1198897860343044</v>
+        <v>0.1809183519321366</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1569351660618414</v>
+        <v>0.1721167237592292</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.1413480786855583</v>
+        <v>-0.2442912732765902</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.02846112942859752</v>
+        <v>0.05241356052997699</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.06984447139519975</v>
+        <v>-0.05640327293359234</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.009914504001291036</v>
+        <v>-0.03623527594388352</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.006335493443797966</v>
+        <v>-0.05844840134024117</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0.2132721817254239</v>
+        <v>-0.3518041669053028</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.01953526362623821</v>
+        <v>0.02812854494717558</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.2106332992874178</v>
+        <v>0.353485027634732</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.1764800434451671</v>
+        <v>-0.3067650930002609</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.345814311494867</v>
+        <v>0.5793379469346135</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.08319664993808815</v>
+        <v>-0.1690121435000674</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.1067741211512649</v>
+        <v>0.174718138267757</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.1626052005880836</v>
+        <v>-0.3896374752722829</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.01102370504500045</v>
+        <v>0.01964165585099317</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.1470955831934179</v>
+        <v>0.2687094011179669</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01594511287330602</v>
+        <v>-0.01571896809584688</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.06220434912751557</v>
+        <v>-0.1306446699114102</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.1799624571137389</v>
+        <v>-0.01338097314072566</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.09247401670397259</v>
+        <v>0.2142034000167945</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.09938044767452085</v>
+        <v>0.2977368412029168</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.1737944096717778</v>
+        <v>0.01698702860025349</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>-0.3555504776015457</v>
       </c>
     </row>
     <row r="10">
@@ -2419,202 +2445,205 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3080340370679903</v>
+        <v>0.3886807999666658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1886309416477043</v>
+        <v>-0.1364665658173188</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.17985840249897</v>
+        <v>-0.03339111200147159</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0350572586733179</v>
+        <v>0.3201591671863372</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1393105200562207</v>
+        <v>-0.4302659643858782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09887908718909834</v>
+        <v>0.1784773453633164</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02587547238954832</v>
+        <v>-0.1321055960225309</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1279039629221136</v>
+        <v>0.1025375730326567</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.05749514337544707</v>
+        <v>-0.1119552869970151</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.2142381474278501</v>
+        <v>-0.02500967013072386</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.08496583372590656</v>
+        <v>-0.003032575780785627</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.3362626499244982</v>
+        <v>0.1271128514958414</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07200880888810762</v>
+        <v>-0.1387994764083011</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.01449940262797669</v>
+        <v>-0.2057544130217707</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01032751332881804</v>
+        <v>-0.2024244411831053</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.09807737704965125</v>
+        <v>-0.01364834851788343</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1164628623380116</v>
+        <v>-0.420106318190292</v>
       </c>
       <c r="S10" t="n">
-        <v>0.003679106944211689</v>
+        <v>-0.1693724287732881</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1380020662845615</v>
+        <v>-0.2230500765641453</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0459660876848422</v>
+        <v>-0.02853600612256182</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.1133444798198425</v>
+        <v>0.1270954038488449</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1471647898365243</v>
+        <v>-0.01677052276396658</v>
       </c>
       <c r="X10" t="n">
-        <v>0.08183604409775316</v>
+        <v>0.1046504989336729</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.09137394522384901</v>
+        <v>0.1835019895316586</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.165367971824552</v>
+        <v>0.03154965835398322</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05708805584244582</v>
+        <v>-0.03046982898302205</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.1617595088467771</v>
+        <v>0.2936656350758581</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.06809637145765168</v>
+        <v>0.11652137825401</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.05174437234784237</v>
+        <v>0.05099428243883537</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.196970623904424</v>
+        <v>-0.1196025856194073</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1034859199698152</v>
+        <v>0.0528930534848169</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.08753487627212923</v>
+        <v>-0.1098336106434477</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0350264932954976</v>
+        <v>-0.001028432977769474</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.04596608768484219</v>
+        <v>-0.02853600612256173</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.1266090564416672</v>
+        <v>-0.06012305563062913</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.01093123367269412</v>
+        <v>-0.1081592072121645</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.005274839400396334</v>
+        <v>0.1270788946387826</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.09980042132458183</v>
+        <v>0.1356698853742728</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.09990931317685915</v>
+        <v>-0.05124619647612266</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.07346062884026036</v>
+        <v>-0.1426498530273104</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.05826167308863903</v>
+        <v>-0.2315475237509964</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.02880838950410433</v>
+        <v>0.1726490525796867</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.10814267308665</v>
+        <v>0.06796363325664921</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.003391543732765755</v>
+        <v>0.1139062161310375</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.1469010385040518</v>
+        <v>0.3842090741588426</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0.08500543327395782</v>
+        <v>0.0963772234730034</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.1758401550832454</v>
+        <v>0.03717205396533756</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.09084539323142886</v>
+        <v>-0.2490430315891472</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.1746985774058938</v>
+        <v>0.1078589798536495</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.02223348697145437</v>
+        <v>0.2167603960313817</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0.02917550481481186</v>
+        <v>-0.07287207656232725</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.1354326043982562</v>
+        <v>-0.0611460166797991</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.004070969206724878</v>
+        <v>0.07507977415170083</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.1119501167877965</v>
+        <v>-0.04892407433258678</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.1052365135767822</v>
+        <v>0.1249613384422075</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.297296905205403</v>
+        <v>0.1486584483215482</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.06438047930358236</v>
+        <v>0.01816340016340203</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.02345897789138873</v>
+        <v>0.283594651520423</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.1815825546784141</v>
+        <v>-0.1931158399025983</v>
       </c>
       <c r="BI10" t="n">
-        <v>-0.1114044491427228</v>
+        <v>-0.008546690722699108</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1056137933132731</v>
+        <v>0.1145402293301751</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001759712168761962</v>
+        <v>0.5071650425983106</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.04500758719659655</v>
+        <v>-0.3424085679988491</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.118484079314655</v>
+        <v>0.363572201805927</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.1368852238257931</v>
+        <v>-0.4788424372946612</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.1120964474223326</v>
+        <v>0.545207229347953</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.2144875715482836</v>
       </c>
     </row>
   </sheetData>
@@ -2628,7 +2657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2683,28 +2712,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.156334555625567</v>
+        <v>-2.264476448674873</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.347952006727331</v>
+        <v>-2.415552496194654</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.243100941288013</v>
+        <v>2.266849767957663</v>
       </c>
       <c r="E2" t="n">
-        <v>1.628228686436922</v>
+        <v>-2.622883132315613</v>
       </c>
       <c r="F2" t="n">
-        <v>3.512334382183663</v>
+        <v>3.473585153079301</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.98758800042374</v>
+        <v>-2.802253973417725</v>
       </c>
       <c r="H2" t="n">
-        <v>1.063986129735828</v>
+        <v>1.2958683618553</v>
       </c>
       <c r="I2" t="n">
-        <v>3.116259724358095</v>
+        <v>-1.197563109023228</v>
       </c>
     </row>
     <row r="3">
@@ -2712,28 +2741,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.958061997250586</v>
+        <v>-2.048068609521565</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.560955970356331</v>
+        <v>-2.594053177560832</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.419229721570358</v>
+        <v>1.382471708700368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7064549535764516</v>
+        <v>-2.037092443386952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7250062489904603</v>
+        <v>0.6611752149414614</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3328047684342314</v>
+        <v>-0.290148357061049</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6246662997950356</v>
+        <v>1.014769996765597</v>
       </c>
       <c r="I3" t="n">
-        <v>1.650972508730938</v>
+        <v>-1.438978601756583</v>
       </c>
     </row>
     <row r="4">
@@ -2741,28 +2770,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.986598848597468</v>
+        <v>5.997937038065703</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.96312823128304</v>
+        <v>-2.011680138779636</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.38593225209088</v>
+        <v>3.406493628574957</v>
       </c>
       <c r="E4" t="n">
-        <v>2.898775759188454</v>
+        <v>-1.22149037670695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4271228655483781</v>
+        <v>0.4651308846551447</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1878024894347493</v>
+        <v>-0.171827953134861</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8530518474196286</v>
+        <v>0.5875953675238783</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9287577843055468</v>
+        <v>0.5905612289963751</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2799,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.273504527559645</v>
+        <v>3.216639688655347</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.846245630909504</v>
+        <v>-3.867148617677556</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6238376163449442</v>
+        <v>4.429304225913341</v>
       </c>
       <c r="E5" t="n">
-        <v>5.097538699781897</v>
+        <v>1.037835574162805</v>
       </c>
       <c r="F5" t="n">
-        <v>3.40330131962285</v>
+        <v>3.472283660996103</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.129099527266418</v>
+        <v>-2.990745254405556</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9564663016877835</v>
+        <v>0.8956718496155407</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.048184509393713</v>
+        <v>0.4918488600523058</v>
       </c>
     </row>
     <row r="6">
@@ -2799,28 +2828,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.497101726712387</v>
+        <v>-4.59158970685545</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.246087232875881</v>
+        <v>-2.308909534559992</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.209755969566173</v>
+        <v>0.4575067434474504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003813066732748708</v>
+        <v>-1.115538049059179</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6130389538477867</v>
+        <v>-0.6440252857983754</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220960434920485</v>
+        <v>0.05904423195404546</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.133464449890837</v>
+        <v>-2.060758298272482</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9845279886345755</v>
+        <v>-0.5442118138194321</v>
       </c>
     </row>
     <row r="7">
@@ -2828,28 +2857,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.030967884992076</v>
+        <v>-4.09650984774535</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.24355209076451</v>
+        <v>-3.251758979709721</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3500068200501354</v>
+        <v>-0.7269333697253717</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.250887307032423</v>
+        <v>-0.5965430318681328</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2904105628241167</v>
+        <v>-0.266703446717458</v>
       </c>
       <c r="G7" t="n">
-        <v>2.405170880858439</v>
+        <v>2.524985931973065</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.9337780017412234</v>
+        <v>-0.5800864113017549</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6935872506255178</v>
+        <v>-1.037030538093743</v>
       </c>
     </row>
     <row r="8">
@@ -2857,28 +2886,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.156859733657564</v>
+        <v>-1.152256224964083</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.484104436754912</v>
+        <v>-2.455360306900351</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.818886143824242</v>
+        <v>1.520593679532215</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02998926190296605</v>
+        <v>-2.353001866806551</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.258360758273066</v>
+        <v>-1.252140186366897</v>
       </c>
       <c r="G8" t="n">
-        <v>1.891200528305778</v>
+        <v>2.365769276896963</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.015869146147826</v>
+        <v>-0.9641888029370821</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3920519890278135</v>
+        <v>0.09664310578927773</v>
       </c>
     </row>
     <row r="9">
@@ -2886,28 +2915,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.040983124142131</v>
+        <v>-3.119725153817487</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.314856665190389</v>
+        <v>-2.327967547428517</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.462215101323802</v>
+        <v>0.9075707838460551</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3490885025060159</v>
+        <v>-1.216180853585067</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1014706949356697</v>
+        <v>-0.1428429765556123</v>
       </c>
       <c r="G9" t="n">
-        <v>1.760135151708135</v>
+        <v>1.365158975327564</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3899263394227865</v>
+        <v>-0.1178598817822816</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5377630385024128</v>
+        <v>-1.065745426627079</v>
       </c>
     </row>
     <row r="10">
@@ -2915,28 +2944,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8738931671062747</v>
+        <v>-0.9252271505659923</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.161519537495452</v>
+        <v>-3.057192780447577</v>
       </c>
       <c r="D10" t="n">
-        <v>4.197911912349334</v>
+        <v>0.4363165744074687</v>
       </c>
       <c r="E10" t="n">
-        <v>2.046404019492258</v>
+        <v>4.4752674852575</v>
       </c>
       <c r="F10" t="n">
-        <v>1.205544855636058</v>
+        <v>1.227420673772564</v>
       </c>
       <c r="G10" t="n">
-        <v>2.594661984321279</v>
+        <v>2.154078451065619</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1141496770622351</v>
+        <v>0.3803370032329194</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6633641112303468</v>
+        <v>-0.7509780532121445</v>
       </c>
     </row>
     <row r="11">
@@ -2944,28 +2973,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.485967994415687</v>
+        <v>-0.5880925193645712</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01350231647091837</v>
+        <v>-0.06361681911035576</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8443566167928186</v>
+        <v>-2.298156139806674</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.003463217779417</v>
+        <v>0.06880260910232096</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.439304852903881</v>
+        <v>-1.440361448362477</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2862094945075634</v>
+        <v>-0.1444381407102127</v>
       </c>
       <c r="H11" t="n">
-        <v>3.714970984422114</v>
+        <v>3.610310927735454</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3520889455405313</v>
+        <v>1.150659360101153</v>
       </c>
     </row>
     <row r="12">
@@ -2973,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029749339681138</v>
+        <v>3.978662700864566</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.380399390159898</v>
+        <v>-2.356785389299201</v>
       </c>
       <c r="D12" t="n">
-        <v>8.916805294418987</v>
+        <v>-3.965292469027189</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3531223609002641</v>
+        <v>8.097995555941534</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4844918032635323</v>
+        <v>0.6752812433499893</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1952340613297689</v>
+        <v>-0.2338538624061995</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.219982751149915</v>
+        <v>-0.7404840875446502</v>
       </c>
       <c r="I12" t="n">
-        <v>1.011926148972892</v>
+        <v>-2.020467769059012</v>
       </c>
     </row>
     <row r="13">
@@ -3002,28 +3031,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5581627500995011</v>
+        <v>-0.6675473251319808</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.881694178260757</v>
+        <v>-1.937508148477401</v>
       </c>
       <c r="D13" t="n">
-        <v>1.150316574841775</v>
+        <v>-1.730285961799479</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.390681405956999</v>
+        <v>0.6402600574417073</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.266017926973768</v>
+        <v>-1.16657821592884</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3176978340182147</v>
+        <v>0.1710235878803296</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6240423987818</v>
+        <v>2.213942009332079</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.55060515381623</v>
+        <v>1.941240598961857</v>
       </c>
     </row>
     <row r="14">
@@ -3031,28 +3060,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.939560461179753</v>
+        <v>5.814270726350887</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.802006328749112</v>
+        <v>-2.933859972569563</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3176895941767349</v>
+        <v>-3.512556359314531</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.172639578422007</v>
+        <v>-1.015045317285956</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8823759450042427</v>
+        <v>-1.046423771706833</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.680229411222057</v>
+        <v>-2.237414411314264</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.542795312942022</v>
+        <v>-2.900168948210863</v>
       </c>
       <c r="I14" t="n">
-        <v>2.556891762788591</v>
+        <v>0.1789270653103872</v>
       </c>
     </row>
     <row r="15">
@@ -3060,28 +3089,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.88129761590566</v>
+        <v>0.7637257726869739</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.450983861832352</v>
+        <v>-1.49481116324178</v>
       </c>
       <c r="D15" t="n">
-        <v>1.009170730225243</v>
+        <v>-2.440960189514606</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.066005322815068</v>
+        <v>0.1899805404146774</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8302890786076285</v>
+        <v>-0.7343228022771586</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.899355963366471</v>
+        <v>-1.184040293512848</v>
       </c>
       <c r="H15" t="n">
-        <v>3.927326062152237</v>
+        <v>3.241436648130214</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.164751775389687</v>
+        <v>3.248135121308462</v>
       </c>
     </row>
     <row r="16">
@@ -3089,28 +3118,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.841399983937412</v>
+        <v>-3.989333260611487</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.893069643191772</v>
+        <v>-1.987623121614491</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4618902527878236</v>
+        <v>-0.3269690490921188</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03004745586827717</v>
+        <v>0.4799951549969764</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.56899408088169</v>
+        <v>-2.602187410448503</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3436211567642489</v>
+        <v>-0.7193870424178166</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.9760698421438596</v>
+        <v>-0.73114690310347</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1501530418366054</v>
+        <v>-1.001940440428726</v>
       </c>
     </row>
     <row r="17">
@@ -3118,28 +3147,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.11615045142725</v>
+        <v>11.95777353689566</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6814858468289371</v>
+        <v>-0.7926237906762261</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.445150139171037</v>
+        <v>-3.313659479229409</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.704263755482862</v>
+        <v>-5.038624699834743</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8637148402705003</v>
+        <v>-1.065557333508121</v>
       </c>
       <c r="G17" t="n">
-        <v>1.041577713681579</v>
+        <v>1.298183613495631</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.615235202203691</v>
+        <v>-1.424732278052439</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.700242000223761</v>
+        <v>-0.5249104150082251</v>
       </c>
     </row>
     <row r="18">
@@ -3147,28 +3176,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.778250016244854</v>
+        <v>-0.8957712557378482</v>
       </c>
       <c r="C18" t="n">
-        <v>1.550419663500766</v>
+        <v>1.515657938216719</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7418798716702959</v>
+        <v>0.5811680315592658</v>
       </c>
       <c r="E18" t="n">
-        <v>1.330592005766049</v>
+        <v>1.12607440597067</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.218100824254061</v>
+        <v>-1.211518703604018</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7268603344981316</v>
+        <v>-1.288411070394254</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2375388148275286</v>
+        <v>0.3056794944789159</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.438464689584012</v>
+        <v>-0.2965379029365907</v>
       </c>
     </row>
     <row r="19">
@@ -3176,28 +3205,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3022409864580773</v>
+        <v>0.1965384754287817</v>
       </c>
       <c r="C19" t="n">
-        <v>3.650879419016748</v>
+        <v>3.599764427485483</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.09062672029686893</v>
+        <v>-0.5135337543590163</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2088276087268251</v>
+        <v>-0.2277979786918219</v>
       </c>
       <c r="F19" t="n">
-        <v>1.195103134641706</v>
+        <v>1.153681131074585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2260200074410063</v>
+        <v>-0.6570999549894757</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.589939082584395</v>
+        <v>0.2508597091227801</v>
       </c>
       <c r="I19" t="n">
-        <v>2.350611712582166</v>
+        <v>-3.226185403159992</v>
       </c>
     </row>
     <row r="20">
@@ -3205,28 +3234,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.838471851613217</v>
+        <v>3.822751634741302</v>
       </c>
       <c r="C20" t="n">
-        <v>5.508206509326745</v>
+        <v>5.513926333466972</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5883420895463998</v>
+        <v>3.72004652213263</v>
       </c>
       <c r="E20" t="n">
-        <v>4.143886814635461</v>
+        <v>0.9159294955516762</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5793540558502115</v>
+        <v>-0.6016613190326299</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.4476728029321236</v>
+        <v>-1.127712304666236</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.452060154637923</v>
+        <v>-1.25082555911666</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.234477483663185</v>
+        <v>-0.5396176573226322</v>
       </c>
     </row>
     <row r="21">
@@ -3234,28 +3263,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2988396406709139</v>
+        <v>-0.4081012544243335</v>
       </c>
       <c r="C21" t="n">
-        <v>2.821859857824443</v>
+        <v>2.837169685221586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6132471520533026</v>
+        <v>0.504170255254427</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6709918645292474</v>
+        <v>0.7408565532164327</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.9870044440017549</v>
+        <v>-0.9934860127336949</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5218964568873015</v>
+        <v>0.9353227928316104</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3935797162008914</v>
+        <v>0.002084397951048178</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.639165341800114</v>
+        <v>1.698647679899777</v>
       </c>
     </row>
     <row r="22">
@@ -3263,28 +3292,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.203522107801718</v>
+        <v>-2.310547928307335</v>
       </c>
       <c r="C22" t="n">
-        <v>1.917637740354747</v>
+        <v>1.87834299143727</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5001917881534577</v>
+        <v>1.460292454925068</v>
       </c>
       <c r="E22" t="n">
-        <v>1.473194802981803</v>
+        <v>0.1179207072937296</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.140091454132124</v>
+        <v>-4.157185172501122</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2218452226533781</v>
+        <v>-0.1858846778068378</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.05718907256158411</v>
+        <v>0.02410028734916065</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1558101145148875</v>
+        <v>-0.3319768917776785</v>
       </c>
     </row>
     <row r="23">
@@ -3292,28 +3321,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.187105060556488</v>
+        <v>-5.282951127422447</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2703727588670299</v>
+        <v>0.2383942227090293</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7220150107483043</v>
+        <v>0.6921658125397484</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5185473614499081</v>
+        <v>-0.4594363407928585</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.200471369473156</v>
+        <v>-1.29230270354037</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6594250043840033</v>
+        <v>-0.5722433263522346</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.027366025596427</v>
+        <v>-3.085572365873953</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.998094285402191</v>
+        <v>-0.005487298206898191</v>
       </c>
     </row>
     <row r="24">
@@ -3321,28 +3350,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.001706603435135845</v>
+        <v>2.480926043980178</v>
       </c>
       <c r="C24" t="n">
-        <v>3.099435119991237</v>
+        <v>0.6893372636924708</v>
       </c>
       <c r="D24" t="n">
-        <v>2.540845380541523</v>
+        <v>3.933630296503159</v>
       </c>
       <c r="E24" t="n">
-        <v>1.753856518395147</v>
+        <v>1.593251181905434</v>
       </c>
       <c r="F24" t="n">
-        <v>0.731332056366462</v>
+        <v>0.4428714152287056</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3580269703367848</v>
+        <v>3.967917808853654</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.456462557751966</v>
+        <v>-1.156748008238188</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8083760800567177</v>
+        <v>4.427855673594868</v>
       </c>
     </row>
     <row r="25">
@@ -3350,28 +3379,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.06683391612404033</v>
+        <v>-0.04390694797006355</v>
       </c>
       <c r="C25" t="n">
-        <v>3.406352720683933</v>
+        <v>3.180189623673683</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7642669779201309</v>
+        <v>0.6375454228850908</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.215357769714626</v>
+        <v>2.780751547930522</v>
       </c>
       <c r="F25" t="n">
-        <v>2.228332786947069</v>
+        <v>0.7142719574985062</v>
       </c>
       <c r="G25" t="n">
-        <v>5.631005662138988</v>
+        <v>0.1788780491258689</v>
       </c>
       <c r="H25" t="n">
-        <v>2.102409953903825</v>
+        <v>-1.657637069985478</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5218834078541399</v>
+        <v>0.1654762358422995</v>
       </c>
     </row>
     <row r="26">
@@ -3379,28 +3408,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.281957654476829</v>
+        <v>-0.1829195920573076</v>
       </c>
       <c r="C26" t="n">
-        <v>2.766796008338561</v>
+        <v>3.382989229972858</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2833289406952585</v>
+        <v>-1.787639825792496</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5522341900458213</v>
+        <v>-1.69149940535804</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.409929796974018</v>
+        <v>2.186645776713934</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.054315052249658</v>
+        <v>4.701080683348128</v>
       </c>
       <c r="H26" t="n">
-        <v>1.516743088520488</v>
+        <v>2.876003362923704</v>
       </c>
       <c r="I26" t="n">
-        <v>2.877019279223414</v>
+        <v>-2.644059712736017</v>
       </c>
     </row>
     <row r="27">
@@ -3408,28 +3437,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-4.286721717126271</v>
+        <v>-2.430941491211602</v>
       </c>
       <c r="C27" t="n">
-        <v>2.420348154491413</v>
+        <v>2.690278810960293</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3367441458610929</v>
+        <v>-0.7187352723558063</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.444516673153759</v>
+        <v>-0.4954735222926206</v>
       </c>
       <c r="F27" t="n">
-        <v>3.597666423751079</v>
+        <v>-3.469512520008288</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.87507223261504</v>
+        <v>-2.98758812617126</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.7903173024232305</v>
+        <v>1.458873718102732</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.662558857045942</v>
+        <v>0.2183494532977331</v>
       </c>
     </row>
     <row r="28">
@@ -3437,28 +3466,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.232375053674044</v>
+        <v>-4.404636491875016</v>
       </c>
       <c r="C28" t="n">
-        <v>4.344422555213707</v>
+        <v>2.462180585605171</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3006030633216427</v>
+        <v>-4.2169521173648</v>
       </c>
       <c r="E28" t="n">
-        <v>2.272876676015827</v>
+        <v>-1.417251628083203</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1510102533728507</v>
+        <v>3.632408813254122</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7506208653056409</v>
+        <v>-0.5847022839622408</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8354749139540635</v>
+        <v>-1.504380315817249</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7216290238040249</v>
+        <v>2.203332488682258</v>
       </c>
     </row>
     <row r="29">
@@ -3466,28 +3495,57 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.898692708591079</v>
+        <v>4.144219698906273</v>
       </c>
       <c r="C29" t="n">
-        <v>3.514812860241755</v>
+        <v>4.330493962777362</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07663177019271317</v>
+        <v>1.71457221843574</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.532308735423434</v>
+        <v>0.2783461756670281</v>
       </c>
       <c r="F29" t="n">
-        <v>4.289704015629269</v>
+        <v>-0.2769084024139226</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.832951992081435</v>
+        <v>-0.47817785063614</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.7639509472657733</v>
+        <v>1.370565003803749</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.3692791087204162</v>
+        <v>-1.536203492504218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.970842980316885</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.537726909028959</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.49902413923314</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.035408398785325</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.258961786939903</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1.065514519393264</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.353509207686525</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.750217653835447</v>
       </c>
     </row>
   </sheetData>
